--- a/docassemble/ukraine/data/sources/interview_en.xlsx
+++ b/docassemble/ukraine/data/sources/interview_en.xlsx
@@ -5,34 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixvemmer/Desktop/tripliq-repo/docassemble-ukraine/docassemble/ukraine/data/sources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixvemmer/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984D994B-D1F4-DA4B-9023-12D2A09D3783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574C029C-1283-6B43-829C-B13BFDC73CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15040" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="419">
   <si>
     <t>interview</t>
   </si>
@@ -64,13 +52,45 @@
     <t>Question_1</t>
   </si>
   <si>
+    <t>1f1b6097d20cea3c5d9ae10491d7d3aa</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>DisclaimerShown</t>
+  </si>
+  <si>
+    <t>1f8cca8fd14b19865dfe26e0ac6ba4f5</t>
+  </si>
+  <si>
+    <t>Disclaimer Shown</t>
+  </si>
+  <si>
+    <t>0f9d8b13614071052ef80c56de1ead50</t>
+  </si>
+  <si>
+    <t>TripliQ Hinweis</t>
+  </si>
+  <si>
+    <t>e1af86e448533b16289bda8345b27d35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TripliQ umfasst ***keine Rechtsberatung bzw. Rechtsdienstleistung***, d.h. es erfolgt keine rechtliche Prüfung des konkreten Einzelfalls im Sinne des Rechtsdienstleistungsgesetzes (RDG) durch TripliQ.
+- Wir speichern Ihre Daten nicht dauerhaft. Wir nutzen Ihre Eingaben nur für die Erstellung Ihres Antrages. Danach werden Ihre Daten gelöscht.
+- Das Angebot „TripliQ" unterstützt den Kunden durch einen softwaregestützten Interview- und Vertragserstellungsprozess bei der eigenverantwortlichen Erstellung seiner Rechtsdokumente.
+- Dieser Prozess ist grundsätzlich so gestaltet, dass die Anwendung keine besonderen Rechtskenntnisse erfordert. Ein automatisierter Interviewprozess kann allerdings nicht jeden einzelnen Sachverhalt mit seinen spezifischen Besonderheiten erfassen.
+- Der Kunde ist daher gehalten, die erstellten Rechtsdokumente im Hinblick auf die von ihm angestrebte Verwendung insbesondere einer Plausibilitätsprüfung zu unterziehen. Sollte eine rechtliche Prüfung im konkreten Einzelfall erforderlich werden, empfehlen wir, den Rat eines Rechtsanwalts oder einer sonstigen zur Erbringung von Rechtsdienstleistungen nach dem RDG berechtigten Stelle zu suchen.
+</t>
+  </si>
+  <si>
+    <t>Question_2</t>
+  </si>
+  <si>
     <t>8bd876500ba1d386d7c2567875148aaa</t>
-  </si>
-  <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>en</t>
   </si>
   <si>
     <t>Interview Started</t>
@@ -81,6 +101,9 @@
   <si>
     <t xml:space="preserve">Antrag auf Aufenthaltstitel gem. § 24 AufenthaltsG
 </t>
+  </si>
+  <si>
+    <t>Application for residence title according to § 24 AufenthaltsG</t>
   </si>
   <si>
     <t>4a8f5a283bffedf0e13e610f76705291</t>
@@ -110,7 +133,7 @@
     </r>
   </si>
   <si>
-    <t>Question_2</t>
+    <t>Question_3</t>
   </si>
   <si>
     <t>bc4eea8a43eca9783c811030a56e8243</t>
@@ -156,7 +179,7 @@
     <t>9cfefed8fb9497baa5cd519d7d2bb5d7</t>
   </si>
   <si>
-    <t>Question_3</t>
+    <t>Question_4</t>
   </si>
   <si>
     <t>3af74b6d1d85f3bafe030d5097a92a81</t>
@@ -166,12 +189,18 @@
 </t>
   </si>
   <si>
+    <t>Please complete the information about yourself.</t>
+  </si>
+  <si>
     <t>fecc7b92efa313ac8de08d4094455c9e</t>
   </si>
   <si>
     <t>Vorname</t>
   </si>
   <si>
+    <t>First Name</t>
+  </si>
+  <si>
     <t>c2e366862ccf602f016a326807004aa9</t>
   </si>
   <si>
@@ -184,6 +213,9 @@
     <t>Nachname</t>
   </si>
   <si>
+    <t>Last Name / Birthname</t>
+  </si>
+  <si>
     <t>7e7c162a5a1f8372af6ca75caa391dc6</t>
   </si>
   <si>
@@ -196,6 +228,9 @@
     <t>Adresse in der Ukraine</t>
   </si>
   <si>
+    <t>Address in Ukraine</t>
+  </si>
+  <si>
     <t>d17244f5d112d3070418befaea725dc6</t>
   </si>
   <si>
@@ -208,12 +243,18 @@
     <t>PLZ in der Ukraine</t>
   </si>
   <si>
+    <t>Zip code in Ukraine</t>
+  </si>
+  <si>
     <t>73deb8568395488d598e2614b427cf78</t>
   </si>
   <si>
     <t>Ort in der Ukraine</t>
   </si>
   <si>
+    <t>Place in Ukraine</t>
+  </si>
+  <si>
     <t>1b2d21ab68e4219ce2ec8f073c2db464</t>
   </si>
   <si>
@@ -226,6 +267,9 @@
     <t>Geburtsdatum</t>
   </si>
   <si>
+    <t>Date of birth</t>
+  </si>
+  <si>
     <t>53de3428c5ce9f797a09cdbea5ca2483</t>
   </si>
   <si>
@@ -238,12 +282,18 @@
     <t>Geburtsort</t>
   </si>
   <si>
+    <t>Birthplace</t>
+  </si>
+  <si>
     <t>f91d4ca1d94fd19f8f5be1f15bd09c23</t>
   </si>
   <si>
     <t>Geburtsland</t>
   </si>
   <si>
+    <t>Country of birth</t>
+  </si>
+  <si>
     <t>f01fc92b23faa973f3492a23d5a705c5</t>
   </si>
   <si>
@@ -256,120 +306,192 @@
     <t>Geschlecht</t>
   </si>
   <si>
+    <t>Gender</t>
+  </si>
+  <si>
     <t>3322b72720651014f6f473f0cf2dae22</t>
   </si>
   <si>
     <t>Männlich</t>
   </si>
   <si>
+    <t>Male</t>
+  </si>
+  <si>
     <t>c1a9d224abe4774fd94d39c4d8f883c4</t>
   </si>
   <si>
     <t>Weiblich</t>
   </si>
   <si>
+    <t>Female</t>
+  </si>
+  <si>
     <t>eab75d9851bd767c05237261b153b203</t>
   </si>
   <si>
     <t>Augenfarbe</t>
   </si>
   <si>
+    <t>Eye Color</t>
+  </si>
+  <si>
     <t>313409a244ee26600d1fd7c3e7d1419e</t>
   </si>
   <si>
     <t>Blau</t>
   </si>
   <si>
+    <t>Blue</t>
+  </si>
+  <si>
     <t>da84d888f8e2ad17a2a35ba34b989f3e</t>
   </si>
   <si>
     <t>Grün</t>
   </si>
   <si>
+    <t>Green</t>
+  </si>
+  <si>
     <t>dd7cc12f3c2ce05ee5f67d834f3cdb1f</t>
   </si>
   <si>
     <t>Grau</t>
   </si>
   <si>
+    <t>Gray</t>
+  </si>
+  <si>
     <t>0d178dd9904716651a1b0cd7c9882568</t>
   </si>
   <si>
     <t>Braun</t>
   </si>
   <si>
+    <t>Brown</t>
+  </si>
+  <si>
     <t>d248453369cf82a6a64617f1357089c5</t>
   </si>
   <si>
     <t>Größe</t>
   </si>
   <si>
+    <t>Height</t>
+  </si>
+  <si>
     <t>4481872be58c4d95aec1336303b73159</t>
   </si>
   <si>
     <t>Staatsangehörigkeit</t>
   </si>
   <si>
+    <t>Nationality</t>
+  </si>
+  <si>
     <t>a25a3807795ae5779200d608a222ba3b</t>
   </si>
   <si>
     <t>Vorherige Staatsangehörigkeit (nur zutreffend, wenn Sie zuvor eine andere Staatsangehörigkeit hatten)</t>
   </si>
   <si>
+    <t>Previous nationality (only applicable if you had a different nationality before)</t>
+  </si>
+  <si>
     <t>52b7438c976d9cc1ac0faee13cf87107</t>
   </si>
   <si>
     <t>Familienstand</t>
   </si>
   <si>
+    <t>Marital status</t>
+  </si>
+  <si>
     <t>3561d879014cd8d355dd6f48a7de82d7</t>
   </si>
   <si>
     <t>ledig</t>
   </si>
   <si>
+    <t>Single</t>
+  </si>
+  <si>
     <t>10089a27d8ecac99bb41097d6dbf6045</t>
   </si>
   <si>
     <t>verheiratet</t>
   </si>
   <si>
+    <t>Married</t>
+  </si>
+  <si>
     <t>d1583da77bc6f4c7b014a12fa16dffd3</t>
   </si>
   <si>
     <t>getreent lebend</t>
   </si>
   <si>
+    <t>Living as a partner</t>
+  </si>
+  <si>
     <t>764dbf389582d4e6efad29a46d2e3e8b</t>
   </si>
   <si>
     <t>in eingetragener Lebenspartnerschaft lebend</t>
   </si>
   <si>
+    <t>Living in registered partnership</t>
+  </si>
+  <si>
     <t>6492c3801e8c049f5b8e6826b3d2b7d9</t>
   </si>
   <si>
     <t>geschieden</t>
   </si>
   <si>
+    <t>Divorced</t>
+  </si>
+  <si>
     <t>927d93e85fb03b8bf5d0eabf1513866e</t>
   </si>
   <si>
     <t>verwitwet</t>
   </si>
   <si>
+    <t>Widowed</t>
+  </si>
+  <si>
+    <t>a3193d8c02c38f33b7d6d06cbc7af0b9</t>
+  </si>
+  <si>
+    <t>Hiermit beantrage ich die Erlaubnis einer Erwerbstätigkeit</t>
+  </si>
+  <si>
+    <t>f827cf462f62848df37c5e1e94a4da74</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>1f88aebf7007ada18bc4e0e5df36003c</t>
   </si>
   <si>
     <t>Datum der Hochzeit/ Anmeldung</t>
   </si>
   <si>
+    <t>Date of wedding/ registration</t>
+  </si>
+  <si>
     <t>0975cf6baccb3862c31522c2b5b8fabc</t>
   </si>
   <si>
     <t>Telefon</t>
   </si>
   <si>
+    <t>Phone</t>
+  </si>
+  <si>
     <t>19b3f25973b650a1cab65ce8a7f3dd12</t>
   </si>
   <si>
@@ -388,19 +510,13 @@
     <t>example@mail.com</t>
   </si>
   <si>
-    <t>Question_4</t>
+    <t>Question_5</t>
   </si>
   <si>
     <t>16fcf804313a563fd834dbef8d2100c0</t>
   </si>
   <si>
     <t>Question Asked</t>
-  </si>
-  <si>
-    <t>f827cf462f62848df37c5e1e94a4da74</t>
-  </si>
-  <si>
-    <t>True</t>
   </si>
   <si>
     <t>ffcf25a9474afef66eeb62c018cee111</t>
@@ -416,48 +532,73 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Pleae complete the details about your passport or ID card
+</t>
+  </si>
+  <si>
     <t>7d3e22221a39b8201c1f14305e92814e</t>
   </si>
   <si>
     <t>Reisepass / Personalausweis</t>
   </si>
   <si>
+    <t>Passport / ID card</t>
+  </si>
+  <si>
     <t>bc81cab2d1d8ab637978d4661b08d230</t>
   </si>
   <si>
     <t>eigener Pass/Ausweis</t>
   </si>
   <si>
+    <t>own passport/ID card</t>
+  </si>
+  <si>
     <t>21ec048f9c925cb0d8cf2dc690d47ba7</t>
   </si>
   <si>
     <t>eingetragen bei Vater</t>
   </si>
   <si>
+    <t>registered with father</t>
+  </si>
+  <si>
     <t>bfd7b7364883556645e40b1903f6aa9e</t>
   </si>
   <si>
     <t>Art Ausweisdokument</t>
   </si>
   <si>
+    <t>Type of identity document</t>
+  </si>
+  <si>
     <t>0121efa678848558a8a40938273405f2</t>
   </si>
   <si>
     <t>Reisepass</t>
   </si>
   <si>
+    <t>Passport</t>
+  </si>
+  <si>
     <t>39c6a9c3da84ae1e6456d11f2b9d7634</t>
   </si>
   <si>
     <t>Personalausweis</t>
   </si>
   <si>
+    <t>ID Card</t>
+  </si>
+  <si>
     <t>ef338fd9512742a44430b54b7d9cc890</t>
   </si>
   <si>
     <t>Ausweisdokument Nummer</t>
   </si>
   <si>
+    <t>Identity document number</t>
+  </si>
+  <si>
     <t>1328562d7712ec30e5907281aef5abad</t>
   </si>
   <si>
@@ -470,19 +611,28 @@
     <t>Ausgestellt am</t>
   </si>
   <si>
+    <t>Issued on</t>
+  </si>
+  <si>
     <t>abf7ac09dfe3da2923516dd75445cd7e</t>
   </si>
   <si>
     <t>Gültig bis</t>
   </si>
   <si>
+    <t>Valid until</t>
+  </si>
+  <si>
     <t>63ec771779c8f14287f1e62ba50d67c1</t>
   </si>
   <si>
     <t>Ausstellender Staat</t>
   </si>
   <si>
-    <t>Question_5</t>
+    <t>Issuing State</t>
+  </si>
+  <si>
+    <t>Question_6</t>
   </si>
   <si>
     <t>405d3e56ebb280d2f311e4d129e3870c</t>
@@ -498,12 +648,18 @@
 </t>
   </si>
   <si>
+    <t>Please fill in the details of your spouse/registered civil partner as per LPartG.</t>
+  </si>
+  <si>
     <t>68c5b30a5c70692baeaae343551dadd9</t>
   </si>
   <si>
     <t>Haben Sie einen Ehegatten/eingetragenen Lebenspartner, der ebenfalls eine Aufenthaltserlaubnis beantragen möchte?</t>
   </si>
   <si>
+    <t>Do you have a spouse/registered partner who also wants to apply for a permission to stay?</t>
+  </si>
+  <si>
     <t>f8320b26d30ab433c5a54546d21f414c</t>
   </si>
   <si>
@@ -534,7 +690,38 @@
     <t>${ applicant.address.city }</t>
   </si>
   <si>
-    <t>Question_6</t>
+    <t>Question_7</t>
+  </si>
+  <si>
+    <t>9fb644a605c48746c9426bb91f360add</t>
+  </si>
+  <si>
+    <t>Number Family Members</t>
+  </si>
+  <si>
+    <t>5848c88e37c1896016987bb84dcd9dc5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie viele Familienmitglieder sind mit Ihnen nach Deutschland gekommen?
+</t>
+  </si>
+  <si>
+    <t>eaf88f9c5a548686fa745ff9dc445775</t>
+  </si>
+  <si>
+    <t>Hier zählen nur Personen mit der/dem Antragsteller:in vor der Flucht **innerhalb eines Familienverbands gelebt** und war **vollständig oder größtenteils von ihr/ihm abhängig**.</t>
+  </si>
+  <si>
+    <t>71f221d8debed7f7baf1ee4e7b658199</t>
+  </si>
+  <si>
+    <t>Anzahl</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Question_8</t>
   </si>
   <si>
     <t>d5edb6a1da156d0b28a228bc77826015</t>
@@ -550,13 +737,153 @@
 </t>
   </si>
   <si>
-    <t>71f221d8debed7f7baf1ee4e7b658199</t>
-  </si>
-  <si>
-    <t>Anzahl</t>
-  </si>
-  <si>
-    <t>Question_7</t>
+    <t xml:space="preserve">How many children came with you to Germany?
+</t>
+  </si>
+  <si>
+    <t>Question_9</t>
+  </si>
+  <si>
+    <t>75566c5ecb588b1bdf94e0a9ef16162d</t>
+  </si>
+  <si>
+    <t>Family Member Details</t>
+  </si>
+  <si>
+    <t>5b34b3f76c5c62fe98098e3640a3c78e</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bitte vervollständigen Sie die Informationen über Ihr </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${ i + 1 }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Familienmitglied
+</t>
+    </r>
+  </si>
+  <si>
+    <t>ecaa00bf3577e28c4baa2423436009c9</t>
+  </si>
+  <si>
+    <t>Kyiv</t>
+  </si>
+  <si>
+    <t>c2f1e39b36480ee0c7e9a96345d71a9b</t>
+  </si>
+  <si>
+    <t>Familiäre Verbindung</t>
+  </si>
+  <si>
+    <t>d9eece7f90d8d40b6c391a236a8e8f59</t>
+  </si>
+  <si>
+    <t>Mutter</t>
+  </si>
+  <si>
+    <t>dcb504d58f8287434f6b3098d6b6f69f</t>
+  </si>
+  <si>
+    <t>Vater</t>
+  </si>
+  <si>
+    <t>c4a7f176f39472da0f9e714f45f132ac</t>
+  </si>
+  <si>
+    <t>Schwiegermutter</t>
+  </si>
+  <si>
+    <t>72753a7c1dd9f0ccf94b08327fede540</t>
+  </si>
+  <si>
+    <t>Schwiegervater</t>
+  </si>
+  <si>
+    <t>78f5978148a3dae25fb85200b6f267fe</t>
+  </si>
+  <si>
+    <t>Bruder</t>
+  </si>
+  <si>
+    <t>36c0e58589bdce086dbed1f5f88b5971</t>
+  </si>
+  <si>
+    <t>Schwester</t>
+  </si>
+  <si>
+    <t>86a3f75a78dc5ff1e876fdc98159f73b</t>
+  </si>
+  <si>
+    <t>Schwägerin</t>
+  </si>
+  <si>
+    <t>19a62099932b91d0523cf5426ba3965c</t>
+  </si>
+  <si>
+    <t>Schwager</t>
+  </si>
+  <si>
+    <t>2aa0c2b9def0ecd0fbd6ce7391d8326b</t>
+  </si>
+  <si>
+    <t>Onkel</t>
+  </si>
+  <si>
+    <t>059fb00a4e5ef45c7fe0d60563c453c6</t>
+  </si>
+  <si>
+    <t>Tante</t>
+  </si>
+  <si>
+    <t>06147ed887ea0c1b1fa3ad006b849ed7</t>
+  </si>
+  <si>
+    <t>Nichte</t>
+  </si>
+  <si>
+    <t>f7fd6c15743b17a38c783b8daa9f0edd</t>
+  </si>
+  <si>
+    <t>Neffe</t>
+  </si>
+  <si>
+    <t>ed712769ea77496e07203dbdc9cd7027</t>
+  </si>
+  <si>
+    <t>Cousine</t>
+  </si>
+  <si>
+    <t>a30d92a26314107dfdac74aab0e3c9b5</t>
+  </si>
+  <si>
+    <t>Cousin</t>
+  </si>
+  <si>
+    <t>Question_10</t>
   </si>
   <si>
     <t>33f4d7162ae40e74ca7cbc5ee1b13117</t>
@@ -602,13 +929,40 @@
     </r>
   </si>
   <si>
-    <t>ecaa00bf3577e28c4baa2423436009c9</t>
-  </si>
-  <si>
-    <t>Kyiv</t>
-  </si>
-  <si>
-    <t>Question_8</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Please complete the information about your </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${ i + 1 }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Child</t>
+    </r>
+  </si>
+  <si>
+    <t>Question_11</t>
   </si>
   <si>
     <t>885b3c534ec909cf87987897bfba2235</t>
@@ -624,42 +978,63 @@
 </t>
   </si>
   <si>
+    <t>Please answer the following questions about your arrival.</t>
+  </si>
+  <si>
     <t>7c0cd8d53447a934b61673bb2266a602</t>
   </si>
   <si>
     <t>Einreise nach Deutschland</t>
   </si>
   <si>
+    <t>Entry to Germany</t>
+  </si>
+  <si>
     <t>66eb0e5b03d8ca2b703036d4b44a8699</t>
   </si>
   <si>
     <t>Einreise mit Visum</t>
   </si>
   <si>
+    <t>Entered with a visa</t>
+  </si>
+  <si>
     <t>d10ee484b31918b89a167fd6d8f40948</t>
   </si>
   <si>
     <t>Einreise</t>
   </si>
   <si>
+    <t>Entry</t>
+  </si>
+  <si>
     <t>e6a3f9d48b28d4f378405b8f8d84d1a1</t>
   </si>
   <si>
     <t>mit Shengen-Visum</t>
   </si>
   <si>
+    <t>with Shengen visa</t>
+  </si>
+  <si>
     <t>a65961fcd9f7513bdd5c49181ccbd699</t>
   </si>
   <si>
     <t>mit nationalem deutschen Visum</t>
   </si>
   <si>
+    <t>with national German visa</t>
+  </si>
+  <si>
     <t>b5dc9973d13069eff1e56cbbdc7f9c2e</t>
   </si>
   <si>
     <t>Visumnummer</t>
   </si>
   <si>
+    <t>Visa number</t>
+  </si>
+  <si>
     <t>7669ed3e6faeebc70f6317d866ab7158</t>
   </si>
   <si>
@@ -672,24 +1047,36 @@
     <t>Visum-Kategorie</t>
   </si>
   <si>
+    <t>Visa category</t>
+  </si>
+  <si>
     <t>56edd67915b6cdcaa67c40687d044515</t>
   </si>
   <si>
     <t>Visum für Flugtransit</t>
   </si>
   <si>
+    <t>Visa for flight transit</t>
+  </si>
+  <si>
     <t>8a0a6a671bfb31b3301bad7c096ee11c</t>
   </si>
   <si>
     <t>Visum für die Durchreise</t>
   </si>
   <si>
+    <t>Visa for transit</t>
+  </si>
+  <si>
     <t>fa62ed907c4ac14ee5792e7b5b5384b1</t>
   </si>
   <si>
     <t>Aufenthalt bis zu 90 Tagen</t>
   </si>
   <si>
+    <t>Stay up to 90 days</t>
+  </si>
+  <si>
     <t>71d6486792fffa7eb223d5615ee299f9</t>
   </si>
   <si>
@@ -702,6 +1089,9 @@
     <t>Visum ausgestellt von</t>
   </si>
   <si>
+    <t>Visa issued by</t>
+  </si>
+  <si>
     <t>d4908b1e39cc61772e5d74e5fb77d241</t>
   </si>
   <si>
@@ -714,30 +1104,45 @@
     <t>Ausstellungsdatum des Visums</t>
   </si>
   <si>
+    <t>Visa issued date</t>
+  </si>
+  <si>
     <t>93687a6fc16dcf23bfeb2f822fb61602</t>
   </si>
   <si>
     <t>Visum gültig von</t>
   </si>
   <si>
+    <t>Visa valid from</t>
+  </si>
+  <si>
     <t>15062acb2293074a7c54b97cbe122ce6</t>
   </si>
   <si>
     <t>Visum gültig bis</t>
   </si>
   <si>
+    <t>Visa valid until</t>
+  </si>
+  <si>
     <t>1bd30f5159b6257c234569e9cdca20a6</t>
   </si>
   <si>
     <t>Räumliche Beschränkung</t>
   </si>
   <si>
+    <t>Spatial restriction</t>
+  </si>
+  <si>
     <t>63509b63725d75b1d10285cb656bb109</t>
   </si>
   <si>
     <t>ohne räumliche Beschränkung</t>
   </si>
   <si>
+    <t>Without spatial restriction</t>
+  </si>
+  <si>
     <t>78b610a44487316c18d72d68c15eaec6</t>
   </si>
   <si>
@@ -750,7 +1155,10 @@
     <t>Räumliche Beschränkung auf</t>
   </si>
   <si>
-    <t>Question_9</t>
+    <t>Spatial restriction to</t>
+  </si>
+  <si>
+    <t>Question_12</t>
   </si>
   <si>
     <t>6804f318fb04a55e415325ad26f50ae1</t>
@@ -766,18 +1174,28 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Please complete the following questions about your stay in Germany
+</t>
+  </si>
+  <si>
     <t>fb8364eea703fa59c4bc1313dacf9be5</t>
   </si>
   <si>
     <t>Bitte geben Sie hier ihre geplante oder aktuelle Adresse **in Deutschland** an.</t>
   </si>
   <si>
+    <t>Please enter your planned or current address **in Germany** here.</t>
+  </si>
+  <si>
     <t>d4786069e42c6c8aee25985ac7364864</t>
   </si>
   <si>
     <t>Aktuelle Adresse Deutschland</t>
   </si>
   <si>
+    <t>Current address Germany</t>
+  </si>
+  <si>
     <t>67ceed3af3a7ba6d928e5e60ed1b2f7a</t>
   </si>
   <si>
@@ -790,12 +1208,18 @@
     <t>Aktuelle PLZ Deutschland</t>
   </si>
   <si>
+    <t>Current postal code Germany</t>
+  </si>
+  <si>
     <t>a978a5c98638e47c358fd12d5856f298</t>
   </si>
   <si>
     <t>Aktueller Ort Deutschland</t>
   </si>
   <si>
+    <t>Current city Germany</t>
+  </si>
+  <si>
     <t>68f2201cb7d566aa17f922c49fa65c1e</t>
   </si>
   <si>
@@ -808,6 +1232,9 @@
     <t>Zweck des Aufenthalts</t>
   </si>
   <si>
+    <t>Purpose of the stay</t>
+  </si>
+  <si>
     <t>a7fb7f38dd07f88081a131e4eee7e19b</t>
   </si>
   <si>
@@ -820,13 +1247,19 @@
     <t>Beabsichtigte Dauer des Aufenthalts</t>
   </si>
   <si>
+    <t>Intended duration of stay</t>
+  </si>
+  <si>
     <t>066e0a89bda7b7abde76ad4bb69651ed</t>
   </si>
   <si>
     <t>Ende des Kriegs</t>
   </si>
   <si>
-    <t>Question_10</t>
+    <t>End of the war</t>
+  </si>
+  <si>
+    <t>Question_13</t>
   </si>
   <si>
     <t>a5d727df2ce2d168bae39c78df4b9054</t>
@@ -842,6 +1275,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Almost done, complete the following steps before sending
+</t>
+  </si>
+  <si>
     <t>422b5491fc9cd54f8ae1f4f537417d08</t>
   </si>
   <si>
@@ -849,6 +1286,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Please watch the video below and follow the instructions to find the **right address** to send your application
+</t>
+  </si>
+  <si>
     <t>37bbec6e75751bd637cd89cd06477129</t>
   </si>
   <si>
@@ -861,16 +1302,22 @@
     <t>Die richtige Adresse aus dem Video oben als Adresse für den Antrag notiert</t>
   </si>
   <si>
+    <t>Noted right address from the video above as address for application</t>
+  </si>
+  <si>
     <t>b7365affa2df27626d2e2a8ca823bf6b</t>
   </si>
   <si>
     <t>Alle Ausweise / Pässe kopiert, um sie nach dem Herunterladen des Antrags hinzuzufügen</t>
   </si>
   <si>
+    <t>Copied all IDs / passports to add them to the application after download</t>
+  </si>
+  <si>
     <t>docassemble.ukraine:data/questions/document.yml</t>
   </si>
   <si>
-    <t>Question_11</t>
+    <t>Question_14</t>
   </si>
   <si>
     <t>417213e638acf14e3535ee830f4b0827</t>
@@ -883,6 +1330,10 @@
   </si>
   <si>
     <t xml:space="preserve">Ihr Antrag auf einen Aufenthaltstitel nach § 24 AufenthaltsG ist erstellt!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your application for residence title according to § 24 AufenthaltsG has been created!
 </t>
   </si>
   <si>
@@ -1005,271 +1456,195 @@
     </r>
   </si>
   <si>
-    <t>Question_12</t>
-  </si>
-  <si>
-    <t>f78b3eafebc726131d5f3184986d902e</t>
-  </si>
-  <si>
-    <t>Antrag auf Erteilung eines Aufenthaltstitels nach § 24 AufenthaltsG</t>
-  </si>
-  <si>
-    <t>c8178f063ab6dca768e60c48ca445787</t>
-  </si>
-  <si>
-    <t>Antrag Aufenthaltstitels nach § 24 AufenthaltsG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${ static_image('undraw_onboarding_re_6osc.svg', width='70%') }
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${ static_image('undraw_done_a34v.svg', width='70%') }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name / Birthname</t>
-  </si>
-  <si>
-    <t>Date of birth</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Eye Color</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Gray</t>
-  </si>
-  <si>
-    <t>Brown</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>Nationality</t>
-  </si>
-  <si>
-    <t>Previous nationality (only applicable if you had a different nationality before)</t>
-  </si>
-  <si>
-    <t>Marital status</t>
-  </si>
-  <si>
-    <t>Single</t>
-  </si>
-  <si>
-    <t>Married</t>
-  </si>
-  <si>
-    <t>Divorced</t>
-  </si>
-  <si>
-    <t>Widowed</t>
-  </si>
-  <si>
-    <t>Date of wedding/ registration</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pleae complete the details about your passport or ID card
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>Passport / ID card</t>
-  </si>
-  <si>
-    <t>Passport</t>
-  </si>
-  <si>
-    <t>ID Card</t>
-  </si>
-  <si>
-    <t>Issued on</t>
-  </si>
-  <si>
-    <t>Valid until</t>
-  </si>
-  <si>
-    <t>Issuing State</t>
-  </si>
-  <si>
-    <t>Do you have a spouse/registered partner who also wants to apply for a permission to stay?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How many children came with you to Germany?
-</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Entry to Germany</t>
-  </si>
-  <si>
-    <t>Entered with a visa</t>
-  </si>
-  <si>
-    <t>Entry</t>
-  </si>
-  <si>
-    <t>with Shengen visa</t>
-  </si>
-  <si>
-    <t>with national German visa</t>
-  </si>
-  <si>
-    <t>Visa number</t>
-  </si>
-  <si>
-    <t>Visa category</t>
-  </si>
-  <si>
-    <t>Visa for flight transit</t>
-  </si>
-  <si>
-    <t>Visa for transit</t>
-  </si>
-  <si>
-    <t>Stay up to 90 days</t>
-  </si>
-  <si>
-    <t>Visa issued by</t>
-  </si>
-  <si>
-    <t>Visa issued date</t>
-  </si>
-  <si>
-    <t>Visa valid from</t>
-  </si>
-  <si>
-    <t>Visa valid until</t>
-  </si>
-  <si>
-    <t>Spatial restriction</t>
-  </si>
-  <si>
-    <t>Without spatial restriction</t>
-  </si>
-  <si>
-    <t>Spatial restriction to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please complete the following questions about your stay in Germany
-</t>
-  </si>
-  <si>
-    <t>Intended duration of stay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Almost done, complete the following steps before sending
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please watch the video below and follow the instructions to find the **right address** to send your application
-</t>
-  </si>
-  <si>
-    <t>Noted right address from the video above as address for application</t>
-  </si>
-  <si>
-    <t>Copied all IDs / passports to add them to the application after download</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your application for residence title according to § 24 AufenthaltsG has been created!
-</t>
-  </si>
-  <si>
-    <t>Application for residence title according to § 24 AufenthaltsG</t>
-  </si>
-  <si>
-    <t>Please complete the information about yourself.</t>
-  </si>
-  <si>
-    <t>Address in Ukraine</t>
-  </si>
-  <si>
-    <t>Zip code in Ukraine</t>
-  </si>
-  <si>
-    <t>Place in Ukraine</t>
-  </si>
-  <si>
-    <t>Birthplace</t>
-  </si>
-  <si>
-    <t>Country of birth</t>
-  </si>
-  <si>
-    <t>Living as a partner</t>
-  </si>
-  <si>
-    <t>Living in registered partnership</t>
-  </si>
-  <si>
-    <t>own passport/ID card</t>
-  </si>
-  <si>
-    <t>registered with father</t>
-  </si>
-  <si>
-    <t>Type of identity document</t>
-  </si>
-  <si>
-    <t>Identity document number</t>
-  </si>
-  <si>
-    <t>Please fill in the details of your spouse/registered civil partner as per LPartG.</t>
-  </si>
-  <si>
-    <t>Please complete the information about your ${ i + 1 }. Child</t>
-  </si>
-  <si>
-    <t>Please answer the following questions about your arrival.</t>
-  </si>
-  <si>
-    <t>Please enter your planned or current address **in Germany** here.</t>
-  </si>
-  <si>
-    <t>Current address Germany</t>
-  </si>
-  <si>
-    <t>Current postal code Germany</t>
-  </si>
-  <si>
-    <t>Current city Germany</t>
-  </si>
-  <si>
-    <t>Purpose of the stay</t>
-  </si>
-  <si>
-    <t>End of the war</t>
-  </si>
-  <si>
-    <t>${ static_image('undraw_done_a34v.svg', width='70%') }
-&lt;br&gt;
-&lt;br&gt;
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 #### Congrats on completing the application 🎉
 1. Download the application below as **PDF**
 2. Print the application
-3. &lt;span style=""color:red""&gt;**Sign the application**&lt;/span&gt; at the bottom where it says **Unterschrift**
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;span style=""color:red""&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>**Sign the application**</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> at the bottom where it says **Unterschrift**
 4. Add the copied IDs / passports
 5. Send it to the correct address from the previous step#</t>
+    </r>
+  </si>
+  <si>
+    <t>Question_15</t>
+  </si>
+  <si>
+    <t>f78b3eafebc726131d5f3184986d902e</t>
+  </si>
+  <si>
+    <t>Antrag auf Erteilung eines Aufenthaltstitels nach § 24 AufenthaltsG</t>
+  </si>
+  <si>
+    <t>c8178f063ab6dca768e60c48ca445787</t>
+  </si>
+  <si>
+    <t>Antrag Aufenthaltstitels nach § 24 AufenthaltsG</t>
+  </si>
+  <si>
+    <t>TripliQ Disclaimer</t>
+  </si>
+  <si>
+    <t>TripliQ does ***not include legal advice or legal services***, i.e. there is no legal examination of the specific individual case within the meaning of the Legal Services Act (RDG) by TripliQ.
+- We do not store your data permanently. We only use your input for the creation of your application. After that, your data will be deleted.
+- The service "TripliQ"" supports the customer by a software-supported interview and contract creation process in the autonomous creation of his legal documents.
+- This process is basically designed in such a way that the application does not require any special legal knowledge. However, an automated interview process cannot cover every single circumstance with its specific peculiarities.
+- The customer is therefore required to subject the legal documents created to a plausibility check in particular with regard to the use he intends to make of them. If a legal review becomes necessary in a specific individual case, we recommend seeking the advice of a lawyer or other body authorized to provide legal services under the RDG.</t>
+  </si>
+  <si>
+    <t>Herewith I apply for the permission of gainful employment</t>
+  </si>
+  <si>
+    <t>How many family members came to Germany with you?</t>
+  </si>
+  <si>
+    <t>Only persons with the applicant:in before the escape **lived within a family** and was **completely or mostly dependent** on him/her count here.</t>
+  </si>
+  <si>
+    <t>Please complete the information about your ${ i + 1 }. Family member</t>
+  </si>
+  <si>
+    <t>Family connection</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>Mother-in-law</t>
+  </si>
+  <si>
+    <t>Father-in-law</t>
+  </si>
+  <si>
+    <t>Brother</t>
+  </si>
+  <si>
+    <t>Sister</t>
+  </si>
+  <si>
+    <t>Sister-in-law</t>
+  </si>
+  <si>
+    <t>Brother-in-law</t>
+  </si>
+  <si>
+    <t>Uncle</t>
+  </si>
+  <si>
+    <t>Aunt</t>
+  </si>
+  <si>
+    <t>Niece</t>
+  </si>
+  <si>
+    <t>Nephew</t>
   </si>
 </sst>
 </file>
@@ -1679,10 +2054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E90" workbookViewId="0">
-      <selection activeCell="H106" sqref="H106"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1745,7 +2120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1768,10 +2143,10 @@
         <v>15</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1794,44 +2169,44 @@
         <v>17</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2">
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
         <v>0</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>21</v>
@@ -1849,15 +2224,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
@@ -1872,21 +2247,21 @@
         <v>24</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
@@ -1895,10 +2270,10 @@
         <v>12</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1906,13 +2281,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>11</v>
@@ -1921,50 +2296,50 @@
         <v>12</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C11" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>11</v>
@@ -1973,24 +2348,24 @@
         <v>12</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>11</v>
@@ -1999,10 +2374,10 @@
         <v>12</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>326</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2010,13 +2385,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
@@ -2025,10 +2400,10 @@
         <v>12</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>270</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2036,13 +2411,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>11</v>
@@ -2051,10 +2426,10 @@
         <v>12</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2062,13 +2437,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>11</v>
@@ -2077,24 +2452,24 @@
         <v>12</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>11</v>
@@ -2103,10 +2478,10 @@
         <v>12</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2114,13 +2489,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>11</v>
@@ -2129,10 +2504,10 @@
         <v>12</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>327</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2140,13 +2515,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>11</v>
@@ -2155,10 +2530,10 @@
         <v>12</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2166,13 +2541,13 @@
         <v>8</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>11</v>
@@ -2181,10 +2556,10 @@
         <v>12</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>328</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2192,13 +2567,13 @@
         <v>8</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>11</v>
@@ -2207,10 +2582,10 @@
         <v>12</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>329</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2218,13 +2593,13 @@
         <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>11</v>
@@ -2233,10 +2608,10 @@
         <v>12</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2244,13 +2619,13 @@
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C22" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>11</v>
@@ -2259,10 +2634,10 @@
         <v>12</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>272</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2270,13 +2645,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C23" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>11</v>
@@ -2284,11 +2659,11 @@
       <c r="F23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>56</v>
+      <c r="G23" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2296,13 +2671,13 @@
         <v>8</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C24" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>11</v>
@@ -2311,10 +2686,10 @@
         <v>12</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>330</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2322,13 +2697,13 @@
         <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C25" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>11</v>
@@ -2337,10 +2712,10 @@
         <v>12</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>331</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2348,13 +2723,13 @@
         <v>8</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C26" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>11</v>
@@ -2363,10 +2738,10 @@
         <v>12</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2374,13 +2749,13 @@
         <v>8</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C27" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>11</v>
@@ -2388,11 +2763,11 @@
       <c r="F27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>273</v>
+      <c r="G27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2400,13 +2775,13 @@
         <v>8</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C28" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>11</v>
@@ -2415,10 +2790,10 @@
         <v>12</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>274</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2426,13 +2801,13 @@
         <v>8</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C29" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>11</v>
@@ -2441,10 +2816,10 @@
         <v>12</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>275</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2452,13 +2827,13 @@
         <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C30" s="2">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>11</v>
@@ -2467,10 +2842,10 @@
         <v>12</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>276</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2478,13 +2853,13 @@
         <v>8</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C31" s="2">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>11</v>
@@ -2493,10 +2868,10 @@
         <v>12</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>277</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2504,13 +2879,13 @@
         <v>8</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C32" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>11</v>
@@ -2519,10 +2894,10 @@
         <v>12</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>278</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2530,13 +2905,13 @@
         <v>8</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C33" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>11</v>
@@ -2545,10 +2920,10 @@
         <v>12</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>279</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2556,13 +2931,13 @@
         <v>8</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C34" s="2">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>11</v>
@@ -2571,10 +2946,10 @@
         <v>12</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>280</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2582,13 +2957,13 @@
         <v>8</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C35" s="2">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>11</v>
@@ -2597,10 +2972,10 @@
         <v>12</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>281</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2608,13 +2983,13 @@
         <v>8</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C36" s="2">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>11</v>
@@ -2623,24 +2998,24 @@
         <v>12</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C37" s="2">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>11</v>
@@ -2649,10 +3024,10 @@
         <v>12</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>283</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2660,13 +3035,13 @@
         <v>8</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C38" s="2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>11</v>
@@ -2675,10 +3050,10 @@
         <v>12</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>284</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2686,13 +3061,13 @@
         <v>8</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C39" s="2">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>11</v>
@@ -2701,10 +3076,10 @@
         <v>12</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>285</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2712,13 +3087,13 @@
         <v>8</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C40" s="2">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>11</v>
@@ -2727,24 +3102,24 @@
         <v>12</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C41" s="2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>11</v>
@@ -2753,10 +3128,10 @@
         <v>12</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>332</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2764,13 +3139,13 @@
         <v>8</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>11</v>
@@ -2779,10 +3154,10 @@
         <v>12</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>333</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2790,13 +3165,13 @@
         <v>8</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C43" s="2">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>11</v>
@@ -2805,10 +3180,10 @@
         <v>12</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>287</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2816,13 +3191,13 @@
         <v>8</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C44" s="2">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>11</v>
@@ -2831,10 +3206,10 @@
         <v>12</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>288</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2842,13 +3217,13 @@
         <v>8</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C45" s="2">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>11</v>
@@ -2857,10 +3232,10 @@
         <v>12</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>289</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2868,13 +3243,13 @@
         <v>8</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C46" s="2">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>11</v>
@@ -2883,10 +3258,10 @@
         <v>12</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>290</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2894,13 +3269,13 @@
         <v>8</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C47" s="2">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>11</v>
@@ -2909,10 +3284,10 @@
         <v>12</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2920,13 +3295,13 @@
         <v>8</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="2">
         <v>32</v>
       </c>
-      <c r="C48" s="2">
-        <v>36</v>
-      </c>
       <c r="D48" s="2" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>11</v>
@@ -2935,10 +3310,10 @@
         <v>12</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2946,13 +3321,13 @@
         <v>8</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C49" s="2">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>11</v>
@@ -2961,10 +3336,10 @@
         <v>12</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>108</v>
+        <v>402</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2972,13 +3347,13 @@
         <v>8</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="C50" s="2">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>11</v>
@@ -2987,10 +3362,10 @@
         <v>12</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2998,13 +3373,13 @@
         <v>8</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="C51" s="2">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>11</v>
@@ -3013,10 +3388,10 @@
         <v>12</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3024,13 +3399,13 @@
         <v>8</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="C52" s="2">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>11</v>
@@ -3039,24 +3414,24 @@
         <v>12</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="C53" s="2">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>11</v>
@@ -3065,10 +3440,10 @@
         <v>12</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>291</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3076,13 +3451,13 @@
         <v>8</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="C54" s="2">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>11</v>
@@ -3091,10 +3466,10 @@
         <v>12</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>292</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3102,13 +3477,13 @@
         <v>8</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="C55" s="2">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>11</v>
@@ -3117,10 +3492,10 @@
         <v>12</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>334</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3128,13 +3503,13 @@
         <v>8</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="C56" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>11</v>
@@ -3143,10 +3518,10 @@
         <v>12</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>335</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3154,13 +3529,13 @@
         <v>8</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="C57" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>11</v>
@@ -3169,24 +3544,24 @@
         <v>12</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="C58" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>11</v>
@@ -3195,10 +3570,10 @@
         <v>12</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>293</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3206,13 +3581,13 @@
         <v>8</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="C59" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>11</v>
@@ -3221,10 +3596,10 @@
         <v>12</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>294</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3232,13 +3607,13 @@
         <v>8</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="C60" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>11</v>
@@ -3247,10 +3622,10 @@
         <v>12</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>337</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3258,13 +3633,13 @@
         <v>8</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="C61" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>11</v>
@@ -3273,10 +3648,10 @@
         <v>12</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3284,13 +3659,13 @@
         <v>8</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="C62" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>11</v>
@@ -3299,10 +3674,10 @@
         <v>12</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>295</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3310,13 +3685,13 @@
         <v>8</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="C63" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>11</v>
@@ -3325,10 +3700,10 @@
         <v>12</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>296</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3336,13 +3711,13 @@
         <v>8</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="C64" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>11</v>
@@ -3351,10 +3726,10 @@
         <v>12</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>297</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3362,13 +3737,13 @@
         <v>8</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C65" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>11</v>
@@ -3377,24 +3752,24 @@
         <v>12</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C66" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>11</v>
@@ -3403,24 +3778,24 @@
         <v>12</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C67" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>11</v>
@@ -3429,10 +3804,10 @@
         <v>12</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>298</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3440,13 +3815,13 @@
         <v>8</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C68" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>11</v>
@@ -3455,10 +3830,10 @@
         <v>12</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3466,13 +3841,13 @@
         <v>8</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C69" s="2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>11</v>
@@ -3481,10 +3856,10 @@
         <v>12</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>327</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3492,13 +3867,13 @@
         <v>8</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="C70" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>11</v>
@@ -3506,25 +3881,25 @@
       <c r="F70" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G70" s="5" t="s">
-        <v>152</v>
+      <c r="G70" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="C71" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>11</v>
@@ -3532,25 +3907,25 @@
       <c r="F71" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G71" s="5" t="s">
-        <v>154</v>
+      <c r="G71" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="C72" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>11</v>
@@ -3558,11 +3933,11 @@
       <c r="F72" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G72" s="5" t="s">
-        <v>156</v>
+      <c r="G72" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3570,13 +3945,13 @@
         <v>8</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="C73" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>11</v>
@@ -3585,24 +3960,24 @@
         <v>12</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="C74" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>11</v>
@@ -3611,10 +3986,10 @@
         <v>12</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>299</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3622,13 +3997,13 @@
         <v>8</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="C75" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>11</v>
@@ -3636,11 +4011,11 @@
       <c r="F75" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G75" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>300</v>
+      <c r="G75" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3648,13 +4023,13 @@
         <v>8</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C76" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>11</v>
@@ -3662,25 +4037,25 @@
       <c r="F76" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G76" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C77" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>11</v>
@@ -3688,11 +4063,11 @@
       <c r="F77" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G77" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>339</v>
+      <c r="G77" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3700,65 +4075,65 @@
         <v>8</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="C78" s="2">
+        <v>0</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C79" s="2">
+        <v>1</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C80" s="2">
         <v>2</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C79" s="2">
-        <v>0</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C80" s="2">
-        <v>1</v>
-      </c>
       <c r="D80" s="2" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>11</v>
@@ -3767,10 +4142,10 @@
         <v>12</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>340</v>
+        <v>404</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3778,13 +4153,13 @@
         <v>8</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="C81" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>11</v>
@@ -3793,10 +4168,10 @@
         <v>12</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>301</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3804,13 +4179,13 @@
         <v>8</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>171</v>
+        <v>221</v>
       </c>
       <c r="C82" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>11</v>
@@ -3819,24 +4194,24 @@
         <v>12</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>171</v>
+        <v>221</v>
       </c>
       <c r="C83" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>11</v>
@@ -3845,10 +4220,10 @@
         <v>12</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>181</v>
+        <v>225</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>303</v>
+        <v>226</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3856,13 +4231,13 @@
         <v>8</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="C84" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>11</v>
@@ -3871,24 +4246,24 @@
         <v>12</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="C85" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>11</v>
@@ -3897,10 +4272,10 @@
         <v>12</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>305</v>
+        <v>405</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3908,13 +4283,13 @@
         <v>8</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="C86" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>11</v>
@@ -3923,10 +4298,10 @@
         <v>12</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>306</v>
+        <v>233</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3934,13 +4309,13 @@
         <v>8</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="C87" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>11</v>
@@ -3949,10 +4324,10 @@
         <v>12</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>189</v>
+        <v>406</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3960,13 +4335,13 @@
         <v>8</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="C88" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>11</v>
@@ -3975,10 +4350,10 @@
         <v>12</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>307</v>
+        <v>407</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3986,13 +4361,13 @@
         <v>8</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="C89" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>11</v>
@@ -4001,10 +4376,10 @@
         <v>12</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>308</v>
+        <v>408</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4012,13 +4387,13 @@
         <v>8</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="C90" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>11</v>
@@ -4027,10 +4402,10 @@
         <v>12</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>309</v>
+        <v>409</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4038,13 +4413,13 @@
         <v>8</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="C91" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>11</v>
@@ -4053,10 +4428,10 @@
         <v>12</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>310</v>
+        <v>410</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4064,13 +4439,13 @@
         <v>8</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="C92" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>198</v>
+        <v>244</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>11</v>
@@ -4079,10 +4454,10 @@
         <v>12</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>199</v>
+        <v>411</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4090,13 +4465,13 @@
         <v>8</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="C93" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>11</v>
@@ -4105,10 +4480,10 @@
         <v>12</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>311</v>
+        <v>412</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4116,13 +4491,13 @@
         <v>8</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="C94" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>11</v>
@@ -4131,10 +4506,10 @@
         <v>12</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4142,13 +4517,13 @@
         <v>8</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="C95" s="2">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>11</v>
@@ -4157,10 +4532,10 @@
         <v>12</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>205</v>
+        <v>251</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>312</v>
+        <v>414</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4168,13 +4543,13 @@
         <v>8</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="C96" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>11</v>
@@ -4183,10 +4558,10 @@
         <v>12</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>207</v>
+        <v>253</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>313</v>
+        <v>415</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4194,13 +4569,13 @@
         <v>8</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="C97" s="2">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>11</v>
@@ -4209,10 +4584,10 @@
         <v>12</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>314</v>
+        <v>416</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4220,13 +4595,13 @@
         <v>8</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="C98" s="2">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>210</v>
+        <v>256</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>11</v>
@@ -4235,10 +4610,10 @@
         <v>12</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>315</v>
+        <v>417</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4246,13 +4621,13 @@
         <v>8</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="C99" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>212</v>
+        <v>258</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>11</v>
@@ -4261,10 +4636,10 @@
         <v>12</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>316</v>
+        <v>418</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4272,13 +4647,13 @@
         <v>8</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="C100" s="2">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>11</v>
@@ -4287,10 +4662,10 @@
         <v>12</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>215</v>
+        <v>261</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>215</v>
+        <v>263</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4298,13 +4673,13 @@
         <v>8</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="C101" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>11</v>
@@ -4313,10 +4688,10 @@
         <v>12</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>317</v>
+        <v>263</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4324,13 +4699,13 @@
         <v>8</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>219</v>
+        <v>265</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>11</v>
@@ -4339,10 +4714,10 @@
         <v>12</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4350,13 +4725,13 @@
         <v>8</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="C103" s="2">
         <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>221</v>
+        <v>267</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>11</v>
@@ -4365,10 +4740,10 @@
         <v>12</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>222</v>
+        <v>268</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4376,13 +4751,13 @@
         <v>8</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="C104" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>11</v>
@@ -4391,24 +4766,24 @@
         <v>12</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>224</v>
+        <v>272</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="C105" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>11</v>
@@ -4417,10 +4792,10 @@
         <v>12</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>342</v>
+        <v>275</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4428,13 +4803,13 @@
         <v>8</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="C106" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>11</v>
@@ -4443,10 +4818,10 @@
         <v>12</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>228</v>
+        <v>278</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4454,13 +4829,13 @@
         <v>8</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="C107" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>11</v>
@@ -4469,10 +4844,10 @@
         <v>12</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>343</v>
+        <v>281</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4480,13 +4855,13 @@
         <v>8</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="C108" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>11</v>
@@ -4495,10 +4870,10 @@
         <v>12</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>344</v>
+        <v>284</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4506,13 +4881,13 @@
         <v>8</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="C109" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>11</v>
@@ -4521,10 +4896,10 @@
         <v>12</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>234</v>
+        <v>286</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4532,13 +4907,13 @@
         <v>8</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="C110" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>235</v>
+        <v>288</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>11</v>
@@ -4547,10 +4922,10 @@
         <v>12</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>236</v>
+        <v>289</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>345</v>
+        <v>290</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4558,13 +4933,13 @@
         <v>8</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="C111" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>237</v>
+        <v>291</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>11</v>
@@ -4573,10 +4948,10 @@
         <v>12</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>238</v>
+        <v>292</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4584,13 +4959,13 @@
         <v>8</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="C112" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>239</v>
+        <v>294</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>11</v>
@@ -4599,10 +4974,10 @@
         <v>12</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>240</v>
+        <v>295</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4610,13 +4985,13 @@
         <v>8</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="C113" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>241</v>
+        <v>296</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>11</v>
@@ -4625,10 +5000,10 @@
         <v>12</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>242</v>
+        <v>297</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4636,13 +5011,13 @@
         <v>8</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="C114" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>11</v>
@@ -4651,24 +5026,24 @@
         <v>12</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>245</v>
+        <v>300</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="C115" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>246</v>
+        <v>302</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>11</v>
@@ -4677,24 +5052,24 @@
         <v>12</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>247</v>
+        <v>303</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="C116" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>11</v>
@@ -4703,10 +5078,10 @@
         <v>12</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>249</v>
+        <v>306</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4714,13 +5089,13 @@
         <v>8</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="C117" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>250</v>
+        <v>308</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>11</v>
@@ -4728,11 +5103,11 @@
       <c r="F117" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G117" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="H117" s="6" t="s">
-        <v>251</v>
+      <c r="G117" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4740,13 +5115,13 @@
         <v>8</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="C118" s="2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>252</v>
+        <v>310</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>11</v>
@@ -4755,10 +5130,10 @@
         <v>12</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>253</v>
+        <v>311</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4766,13 +5141,13 @@
         <v>8</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="C119" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>254</v>
+        <v>313</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>11</v>
@@ -4781,24 +5156,24 @@
         <v>12</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>255</v>
+        <v>314</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="C120" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>258</v>
+        <v>315</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>11</v>
@@ -4807,24 +5182,24 @@
         <v>12</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>259</v>
+        <v>316</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="C121" s="2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>260</v>
+        <v>318</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>11</v>
@@ -4833,24 +5208,24 @@
         <v>12</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="C122" s="2">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>262</v>
+        <v>321</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>11</v>
@@ -4859,24 +5234,24 @@
         <v>12</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>263</v>
+        <v>322</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C123" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>265</v>
+        <v>324</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>11</v>
@@ -4885,36 +5260,686 @@
         <v>12</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>266</v>
+        <v>325</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>256</v>
+        <v>8</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C124" s="2">
+        <v>20</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C125" s="2">
+        <v>21</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C126" s="2">
+        <v>22</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C127" s="2">
+        <v>0</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C128" s="2">
         <v>1</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="H124" s="4" t="s">
-        <v>325</v>
+      <c r="D128" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C129" s="2">
+        <v>2</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C130" s="2">
+        <v>3</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C131" s="2">
+        <v>4</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C132" s="2">
+        <v>5</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C133" s="2">
+        <v>6</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C134" s="2">
+        <v>7</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C135" s="2">
+        <v>8</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C136" s="2">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C137" s="2">
+        <v>10</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C138" s="2">
+        <v>11</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C139" s="2">
+        <v>0</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C140" s="2">
+        <v>1</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C141" s="2">
+        <v>2</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C142" s="2">
+        <v>3</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="H142" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C143" s="2">
+        <v>4</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C144" s="2">
+        <v>5</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C145" s="2">
+        <v>0</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C146" s="2">
+        <v>1</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C147" s="2">
+        <v>2</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C148" s="2">
+        <v>0</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C149" s="2">
+        <v>1</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/docassemble/ukraine/data/sources/interview_en.xlsx
+++ b/docassemble/ukraine/data/sources/interview_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixvemmer/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574C029C-1283-6B43-829C-B13BFDC73CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80124B29-0624-3340-B15C-A20B90E459E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15040" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="447">
   <si>
     <t>interview</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>TripliQ Hinweis</t>
+  </si>
+  <si>
+    <t>TripliQ Disclaimer</t>
   </si>
   <si>
     <t>e1af86e448533b16289bda8345b27d35</t>
@@ -85,6 +88,13 @@
 - Dieser Prozess ist grundsätzlich so gestaltet, dass die Anwendung keine besonderen Rechtskenntnisse erfordert. Ein automatisierter Interviewprozess kann allerdings nicht jeden einzelnen Sachverhalt mit seinen spezifischen Besonderheiten erfassen.
 - Der Kunde ist daher gehalten, die erstellten Rechtsdokumente im Hinblick auf die von ihm angestrebte Verwendung insbesondere einer Plausibilitätsprüfung zu unterziehen. Sollte eine rechtliche Prüfung im konkreten Einzelfall erforderlich werden, empfehlen wir, den Rat eines Rechtsanwalts oder einer sonstigen zur Erbringung von Rechtsdienstleistungen nach dem RDG berechtigten Stelle zu suchen.
 </t>
+  </si>
+  <si>
+    <t>TripliQ does ***not include legal advice or legal services***, i.e. there is no legal examination of the specific individual case within the meaning of the Legal Services Act (RDG) by TripliQ.
+- We do not store your data permanently. We only use your input for the creation of your application. After that, your data will be deleted.
+- The service "TripliQ" supports the customer by a software-supported interview and contract creation process in the autonomous creation of his legal documents.
+- This process is basically designed in such a way that the application does not require any special legal knowledge. However, an automated interview process cannot cover every single circumstance with its specific peculiarities.
+- The customer is therefore required to subject the legal documents created to a plausibility check in particular with regard to the use he or she intends to make of them. If a legal review becomes necessary in a specific individual case, we recommend seeking the advice of a lawyer or other body authorized to provide legal services under the RDG.</t>
   </si>
   <si>
     <t>Question_2</t>
@@ -182,6 +192,24 @@
     <t>Question_4</t>
   </si>
   <si>
+    <t>16fcf804313a563fd834dbef8d2100c0</t>
+  </si>
+  <si>
+    <t>Question Asked</t>
+  </si>
+  <si>
+    <t>f827cf462f62848df37c5e1e94a4da74</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>e2b2fd87315d762a6cf43286f5dfa058</t>
+  </si>
+  <si>
+    <t>Person Details</t>
+  </si>
+  <si>
     <t>3af74b6d1d85f3bafe030d5097a92a81</t>
   </si>
   <si>
@@ -189,7 +217,7 @@
 </t>
   </si>
   <si>
-    <t>Please complete the information about yourself.</t>
+    <t>Please complete the information about yourself</t>
   </si>
   <si>
     <t>fecc7b92efa313ac8de08d4094455c9e</t>
@@ -372,13 +400,13 @@
     <t>Brown</t>
   </si>
   <si>
-    <t>d248453369cf82a6a64617f1357089c5</t>
-  </si>
-  <si>
-    <t>Größe</t>
-  </si>
-  <si>
-    <t>Height</t>
+    <t>4c81d7ef328893ff868ac306c296c031</t>
+  </si>
+  <si>
+    <t>Größe in cm</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>4481872be58c4d95aec1336303b73159</t>
@@ -462,61 +490,90 @@
     <t>Widowed</t>
   </si>
   <si>
+    <t>0975cf6baccb3862c31522c2b5b8fabc</t>
+  </si>
+  <si>
+    <t>Telefon</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>19b3f25973b650a1cab65ce8a7f3dd12</t>
+  </si>
+  <si>
+    <t>+380 XXX XXX XXX</t>
+  </si>
+  <si>
+    <t>ce8ae9da5b7cd6c3df2929543a9af92d</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>fbf2b9cfc0a472389f3620e471bdf0e9</t>
+  </si>
+  <si>
+    <t>example@mail.com</t>
+  </si>
+  <si>
+    <t>Question_5</t>
+  </si>
+  <si>
+    <t>c541d294b4cad5a2d0c13e151180b02e</t>
+  </si>
+  <si>
+    <t>Person Additional Details</t>
+  </si>
+  <si>
+    <t>08e6f5b88febf1c82aa796924d766616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitte vervollständigen Sie weitere Angaben zu ihrer Hochzeit
+</t>
+  </si>
+  <si>
+    <t>Please complete additional details about your wedding</t>
+  </si>
+  <si>
+    <t>1f88aebf7007ada18bc4e0e5df36003c</t>
+  </si>
+  <si>
+    <t>Datum der Hochzeit/ Anmeldung</t>
+  </si>
+  <si>
+    <t>Date of wedding/ registration</t>
+  </si>
+  <si>
+    <t>Question_6</t>
+  </si>
+  <si>
+    <t>7917d59de3d010697c12fc87c125ff34</t>
+  </si>
+  <si>
+    <t>Request Employment</t>
+  </si>
+  <si>
+    <t>959e4e39ce1ae3bde1a78089e4e2e83c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antrag auf Erlaubnis einer Erwerbstätigkeit
+</t>
+  </si>
+  <si>
+    <t>Application for permission to engage in gainful employment</t>
+  </si>
+  <si>
     <t>a3193d8c02c38f33b7d6d06cbc7af0b9</t>
   </si>
   <si>
     <t>Hiermit beantrage ich die Erlaubnis einer Erwerbstätigkeit</t>
   </si>
   <si>
-    <t>f827cf462f62848df37c5e1e94a4da74</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>1f88aebf7007ada18bc4e0e5df36003c</t>
-  </si>
-  <si>
-    <t>Datum der Hochzeit/ Anmeldung</t>
-  </si>
-  <si>
-    <t>Date of wedding/ registration</t>
-  </si>
-  <si>
-    <t>0975cf6baccb3862c31522c2b5b8fabc</t>
-  </si>
-  <si>
-    <t>Telefon</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>19b3f25973b650a1cab65ce8a7f3dd12</t>
-  </si>
-  <si>
-    <t>+380 XXX XXX XXX</t>
-  </si>
-  <si>
-    <t>ce8ae9da5b7cd6c3df2929543a9af92d</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>fbf2b9cfc0a472389f3620e471bdf0e9</t>
-  </si>
-  <si>
-    <t>example@mail.com</t>
-  </si>
-  <si>
-    <t>Question_5</t>
-  </si>
-  <si>
-    <t>16fcf804313a563fd834dbef8d2100c0</t>
-  </si>
-  <si>
-    <t>Question Asked</t>
+    <t>Herewith I apply for the permission of gainful employment</t>
+  </si>
+  <si>
+    <t>Question_7</t>
   </si>
   <si>
     <t>ffcf25a9474afef66eeb62c018cee111</t>
@@ -563,6 +620,12 @@
     <t>registered with father</t>
   </si>
   <si>
+    <t>c457ccd7a4a2feb532e295b6baef0d1b</t>
+  </si>
+  <si>
+    <t>eingetragen bei Mutter</t>
+  </si>
+  <si>
     <t>bfd7b7364883556645e40b1903f6aa9e</t>
   </si>
   <si>
@@ -632,7 +695,7 @@
     <t>Issuing State</t>
   </si>
   <si>
-    <t>Question_6</t>
+    <t>Question_8</t>
   </si>
   <si>
     <t>405d3e56ebb280d2f311e4d129e3870c</t>
@@ -690,7 +753,16 @@
     <t>${ applicant.address.city }</t>
   </si>
   <si>
-    <t>Question_7</t>
+    <t>3e0dca67054b8412df2290b7630d2ebf</t>
+  </si>
+  <si>
+    <t>Hiermit beantragt die Person die Erlaubnis einer Erwerbstätigkeit</t>
+  </si>
+  <si>
+    <t>Herewith the person applies for permission of gainful employment</t>
+  </si>
+  <si>
+    <t>Question_9</t>
   </si>
   <si>
     <t>9fb644a605c48746c9426bb91f360add</t>
@@ -706,10 +778,16 @@
 </t>
   </si>
   <si>
-    <t>eaf88f9c5a548686fa745ff9dc445775</t>
-  </si>
-  <si>
-    <t>Hier zählen nur Personen mit der/dem Antragsteller:in vor der Flucht **innerhalb eines Familienverbands gelebt** und war **vollständig oder größtenteils von ihr/ihm abhängig**.</t>
+    <t>How many family members came to Germany with you?</t>
+  </si>
+  <si>
+    <t>f0cdc1a10206e850afd3da991265350d</t>
+  </si>
+  <si>
+    <t>Nur Personen, die mit der/dem Antragsteller:in vor der Flucht **innerhalb eines Familienverbands gelebt haben** und **vollständig oder größtenteils von ihr/ihm abhängig waren**.</t>
+  </si>
+  <si>
+    <t>Only persons who lived **within a family group** of the applicant before the escape and **were completely or mostly dependent on him/her**.</t>
   </si>
   <si>
     <t>71f221d8debed7f7baf1ee4e7b658199</t>
@@ -721,7 +799,7 @@
     <t>Number</t>
   </si>
   <si>
-    <t>Question_8</t>
+    <t>Question_10</t>
   </si>
   <si>
     <t>d5edb6a1da156d0b28a228bc77826015</t>
@@ -741,7 +819,7 @@
 </t>
   </si>
   <si>
-    <t>Question_9</t>
+    <t>Question_11</t>
   </si>
   <si>
     <t>75566c5ecb588b1bdf94e0a9ef16162d</t>
@@ -787,6 +865,39 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Please complete the information about your </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${ i + 1 }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Family member</t>
+    </r>
+  </si>
+  <si>
     <t>ecaa00bf3577e28c4baa2423436009c9</t>
   </si>
   <si>
@@ -799,91 +910,130 @@
     <t>Familiäre Verbindung</t>
   </si>
   <si>
+    <t>Family connection</t>
+  </si>
+  <si>
     <t>d9eece7f90d8d40b6c391a236a8e8f59</t>
   </si>
   <si>
     <t>Mutter</t>
   </si>
   <si>
+    <t>Mother</t>
+  </si>
+  <si>
     <t>dcb504d58f8287434f6b3098d6b6f69f</t>
   </si>
   <si>
     <t>Vater</t>
   </si>
   <si>
+    <t>Father</t>
+  </si>
+  <si>
     <t>c4a7f176f39472da0f9e714f45f132ac</t>
   </si>
   <si>
     <t>Schwiegermutter</t>
   </si>
   <si>
+    <t>Mother-in-law</t>
+  </si>
+  <si>
     <t>72753a7c1dd9f0ccf94b08327fede540</t>
   </si>
   <si>
     <t>Schwiegervater</t>
   </si>
   <si>
+    <t>Father-in-law</t>
+  </si>
+  <si>
     <t>78f5978148a3dae25fb85200b6f267fe</t>
   </si>
   <si>
     <t>Bruder</t>
   </si>
   <si>
+    <t>Brother</t>
+  </si>
+  <si>
     <t>36c0e58589bdce086dbed1f5f88b5971</t>
   </si>
   <si>
     <t>Schwester</t>
   </si>
   <si>
+    <t>Sister</t>
+  </si>
+  <si>
     <t>86a3f75a78dc5ff1e876fdc98159f73b</t>
   </si>
   <si>
     <t>Schwägerin</t>
   </si>
   <si>
+    <t>Sister-in-law</t>
+  </si>
+  <si>
     <t>19a62099932b91d0523cf5426ba3965c</t>
   </si>
   <si>
     <t>Schwager</t>
   </si>
   <si>
+    <t>Brother-in-law</t>
+  </si>
+  <si>
     <t>2aa0c2b9def0ecd0fbd6ce7391d8326b</t>
   </si>
   <si>
     <t>Onkel</t>
   </si>
   <si>
+    <t>Uncle</t>
+  </si>
+  <si>
     <t>059fb00a4e5ef45c7fe0d60563c453c6</t>
   </si>
   <si>
     <t>Tante</t>
   </si>
   <si>
+    <t>Aunt</t>
+  </si>
+  <si>
     <t>06147ed887ea0c1b1fa3ad006b849ed7</t>
   </si>
   <si>
     <t>Nichte</t>
   </si>
   <si>
+    <t>Niece</t>
+  </si>
+  <si>
     <t>f7fd6c15743b17a38c783b8daa9f0edd</t>
   </si>
   <si>
     <t>Neffe</t>
   </si>
   <si>
+    <t>Nephew</t>
+  </si>
+  <si>
     <t>ed712769ea77496e07203dbdc9cd7027</t>
   </si>
   <si>
     <t>Cousine</t>
   </si>
   <si>
+    <t>Cousin</t>
+  </si>
+  <si>
     <t>a30d92a26314107dfdac74aab0e3c9b5</t>
   </si>
   <si>
-    <t>Cousin</t>
-  </si>
-  <si>
-    <t>Question_10</t>
+    <t>Question_12</t>
   </si>
   <si>
     <t>33f4d7162ae40e74ca7cbc5ee1b13117</t>
@@ -962,7 +1112,7 @@
     </r>
   </si>
   <si>
-    <t>Question_11</t>
+    <t>Question_13</t>
   </si>
   <si>
     <t>885b3c534ec909cf87987897bfba2235</t>
@@ -1158,7 +1308,7 @@
     <t>Spatial restriction to</t>
   </si>
   <si>
-    <t>Question_12</t>
+    <t>Question_14</t>
   </si>
   <si>
     <t>6804f318fb04a55e415325ad26f50ae1</t>
@@ -1259,7 +1409,7 @@
     <t>End of the war</t>
   </si>
   <si>
-    <t>Question_13</t>
+    <t>Question_15</t>
   </si>
   <si>
     <t>a5d727df2ce2d168bae39c78df4b9054</t>
@@ -1279,15 +1429,282 @@
 </t>
   </si>
   <si>
-    <t>422b5491fc9cd54f8ae1f4f537417d08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bitte sehen Sie sich das folgende Video an und folgen Sie den Anweisungen, um die **richtige Adresse** für Ihren Antrag  zu finden
+    <t>5b6ec4f2292d13a918475c27c05650f3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bitte sehen Sie sich das folgende Video an und folgen Sie den Anweisungen, um die **richtige Adresse** für Ihren Antrag  zu finden.
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please watch the video below and follow the instructions to find the **right address** to send your application
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Link zum Behördenfinder]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://bamf-navi.bamf.de/de/Themen/Behoerden/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Please watch the video below and follow the instructions to find the **correct address** for your application.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Link to website]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://bamf-navi.bamf.de/de/Themen/Behoerden/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
   </si>
   <si>
     <t>37bbec6e75751bd637cd89cd06477129</t>
@@ -1317,7 +1734,7 @@
     <t>docassemble.ukraine:data/questions/document.yml</t>
   </si>
   <si>
-    <t>Question_14</t>
+    <t>Question_16</t>
   </si>
   <si>
     <t>417213e638acf14e3535ee830f4b0827</t>
@@ -1571,7 +1988,7 @@
     </r>
   </si>
   <si>
-    <t>Question_15</t>
+    <t>Question_17</t>
   </si>
   <si>
     <t>f78b3eafebc726131d5f3184986d902e</t>
@@ -1586,65 +2003,33 @@
     <t>Antrag Aufenthaltstitels nach § 24 AufenthaltsG</t>
   </si>
   <si>
-    <t>TripliQ Disclaimer</t>
-  </si>
-  <si>
-    <t>TripliQ does ***not include legal advice or legal services***, i.e. there is no legal examination of the specific individual case within the meaning of the Legal Services Act (RDG) by TripliQ.
-- We do not store your data permanently. We only use your input for the creation of your application. After that, your data will be deleted.
-- The service "TripliQ"" supports the customer by a software-supported interview and contract creation process in the autonomous creation of his legal documents.
-- This process is basically designed in such a way that the application does not require any special legal knowledge. However, an automated interview process cannot cover every single circumstance with its specific peculiarities.
-- The customer is therefore required to subject the legal documents created to a plausibility check in particular with regard to the use he intends to make of them. If a legal review becomes necessary in a specific individual case, we recommend seeking the advice of a lawyer or other body authorized to provide legal services under the RDG.</t>
-  </si>
-  <si>
-    <t>Herewith I apply for the permission of gainful employment</t>
-  </si>
-  <si>
-    <t>How many family members came to Germany with you?</t>
-  </si>
-  <si>
-    <t>Only persons with the applicant:in before the escape **lived within a family** and was **completely or mostly dependent** on him/her count here.</t>
-  </si>
-  <si>
-    <t>Please complete the information about your ${ i + 1 }. Family member</t>
-  </si>
-  <si>
-    <t>Family connection</t>
-  </si>
-  <si>
-    <t>Mother</t>
-  </si>
-  <si>
-    <t>Father</t>
-  </si>
-  <si>
-    <t>Mother-in-law</t>
-  </si>
-  <si>
-    <t>Father-in-law</t>
-  </si>
-  <si>
-    <t>Brother</t>
-  </si>
-  <si>
-    <t>Sister</t>
-  </si>
-  <si>
-    <t>Sister-in-law</t>
-  </si>
-  <si>
-    <t>Brother-in-law</t>
-  </si>
-  <si>
-    <t>Uncle</t>
-  </si>
-  <si>
-    <t>Aunt</t>
-  </si>
-  <si>
-    <t>Niece</t>
-  </si>
-  <si>
-    <t>Nephew</t>
+    <t>d248453369cf82a6a64617f1357089c5</t>
+  </si>
+  <si>
+    <t>Größe</t>
+  </si>
+  <si>
+    <t>Height in cm</t>
+  </si>
+  <si>
+    <t>eaf88f9c5a548686fa745ff9dc445775</t>
+  </si>
+  <si>
+    <t>Hier zählen nur Personen mit der/dem Antragsteller:in vor der Flucht **innerhalb eines Familienverbands gelebt** und war **vollständig oder größtenteils von ihr/ihm abhängig**.</t>
+  </si>
+  <si>
+    <t>Only persons who lived **within the family group** of the applicant before the escape and **were completely or mostly dependent on him/her**.</t>
+  </si>
+  <si>
+    <t>422b5491fc9cd54f8ae1f4f537417d08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitte sehen Sie sich das folgende Video an und folgen Sie den Anweisungen, um die **richtige Adresse** für Ihren Antrag  zu finden
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please watch the video below and follow the instructions to find the **right address** to send your application
+</t>
   </si>
 </sst>
 </file>
@@ -2054,10 +2439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H149"/>
+  <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2169,7 +2554,7 @@
         <v>17</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.2">
@@ -2183,7 +2568,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>11</v>
@@ -2192,10 +2577,10 @@
         <v>12</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>401</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2203,13 +2588,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
@@ -2218,10 +2603,10 @@
         <v>12</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2229,13 +2614,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
@@ -2244,10 +2629,10 @@
         <v>12</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2255,13 +2640,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
@@ -2270,10 +2655,10 @@
         <v>12</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2281,13 +2666,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>11</v>
@@ -2296,10 +2681,10 @@
         <v>12</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2307,13 +2692,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>11</v>
@@ -2322,10 +2707,10 @@
         <v>12</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -2333,13 +2718,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>11</v>
@@ -2348,10 +2733,10 @@
         <v>12</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2359,13 +2744,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2">
         <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>11</v>
@@ -2374,10 +2759,10 @@
         <v>12</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2385,13 +2770,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2">
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
@@ -2400,10 +2785,10 @@
         <v>12</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2411,13 +2796,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2">
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>11</v>
@@ -2426,10 +2811,10 @@
         <v>12</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2437,13 +2822,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2">
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>11</v>
@@ -2458,18 +2843,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>11</v>
@@ -2478,10 +2863,10 @@
         <v>12</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2489,13 +2874,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>11</v>
@@ -2504,7 +2889,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>48</v>
@@ -2515,7 +2900,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
@@ -2536,12 +2921,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2">
         <v>3</v>
@@ -2567,7 +2952,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2">
         <v>4</v>
@@ -2585,7 +2970,7 @@
         <v>55</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2593,13 +2978,13 @@
         <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2">
         <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>11</v>
@@ -2608,7 +2993,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>58</v>
@@ -2619,7 +3004,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2">
         <v>6</v>
@@ -2637,7 +3022,7 @@
         <v>60</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2645,13 +3030,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2">
         <v>7</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>11</v>
@@ -2660,7 +3045,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>63</v>
@@ -2671,7 +3056,7 @@
         <v>8</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2">
         <v>8</v>
@@ -2697,7 +3082,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C25" s="2">
         <v>9</v>
@@ -2723,7 +3108,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C26" s="2">
         <v>10</v>
@@ -2749,7 +3134,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C27" s="2">
         <v>11</v>
@@ -2763,11 +3148,11 @@
       <c r="F27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H27" s="6" t="s">
-        <v>73</v>
+      <c r="H27" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2775,13 +3160,13 @@
         <v>8</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C28" s="2">
         <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>11</v>
@@ -2790,7 +3175,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>76</v>
@@ -2801,7 +3186,7 @@
         <v>8</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C29" s="2">
         <v>13</v>
@@ -2827,7 +3212,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C30" s="2">
         <v>14</v>
@@ -2841,10 +3226,10 @@
       <c r="F30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2853,7 +3238,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C31" s="2">
         <v>15</v>
@@ -2879,7 +3264,7 @@
         <v>8</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C32" s="2">
         <v>16</v>
@@ -2905,7 +3290,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C33" s="2">
         <v>17</v>
@@ -2923,7 +3308,7 @@
         <v>89</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2931,25 +3316,25 @@
         <v>8</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C34" s="2">
         <v>18</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="3" t="s">
+      <c r="H34" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2957,25 +3342,25 @@
         <v>8</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C35" s="2">
         <v>19</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="3" t="s">
+      <c r="H35" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2983,25 +3368,25 @@
         <v>8</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C36" s="2">
         <v>20</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="3" t="s">
+      <c r="H36" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3009,25 +3394,25 @@
         <v>8</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C37" s="2">
         <v>21</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="3" t="s">
+      <c r="H37" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3035,25 +3420,25 @@
         <v>8</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C38" s="2">
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="3" t="s">
+      <c r="H38" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3061,25 +3446,25 @@
         <v>8</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C39" s="2">
         <v>23</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="3" t="s">
+      <c r="H39" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3087,51 +3472,51 @@
         <v>8</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C40" s="2">
         <v>24</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="3" t="s">
+      <c r="H40" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H40" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C41" s="2">
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="3" t="s">
+      <c r="H41" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3139,25 +3524,25 @@
         <v>8</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C42" s="2">
         <v>26</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="H42" s="4" t="s">
-        <v>117</v>
+        <v>440</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3165,51 +3550,51 @@
         <v>8</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2">
         <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="3" t="s">
+      <c r="H43" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H43" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2">
         <v>28</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="3" t="s">
+      <c r="H44" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3217,25 +3602,25 @@
         <v>8</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2">
         <v>29</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="3" t="s">
+      <c r="H45" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3243,25 +3628,25 @@
         <v>8</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2">
         <v>30</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="3" t="s">
+      <c r="H46" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3269,25 +3654,25 @@
         <v>8</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C47" s="2">
         <v>31</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="3" t="s">
+      <c r="H47" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3295,25 +3680,25 @@
         <v>8</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C48" s="2">
         <v>32</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="3" t="s">
+      <c r="H48" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3321,25 +3706,25 @@
         <v>8</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C49" s="2">
         <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="3" t="s">
+      <c r="H49" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3347,7 +3732,7 @@
         <v>8</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C50" s="2">
         <v>34</v>
@@ -3365,7 +3750,7 @@
         <v>139</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3373,13 +3758,13 @@
         <v>8</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C51" s="2">
         <v>35</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>11</v>
@@ -3388,10 +3773,10 @@
         <v>12</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3399,13 +3784,13 @@
         <v>8</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C52" s="2">
         <v>36</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>11</v>
@@ -3414,10 +3799,10 @@
         <v>12</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3425,13 +3810,13 @@
         <v>8</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C53" s="2">
         <v>37</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>11</v>
@@ -3440,10 +3825,10 @@
         <v>12</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3451,13 +3836,13 @@
         <v>8</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C54" s="2">
         <v>38</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>11</v>
@@ -3466,10 +3851,10 @@
         <v>12</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3477,13 +3862,13 @@
         <v>8</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C55" s="2">
         <v>39</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>11</v>
@@ -3492,10 +3877,10 @@
         <v>12</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3503,39 +3888,39 @@
         <v>8</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>11</v>
@@ -3544,24 +3929,24 @@
         <v>12</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C58" s="2">
         <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>11</v>
@@ -3570,10 +3955,10 @@
         <v>12</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3581,13 +3966,13 @@
         <v>8</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C59" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>11</v>
@@ -3596,24 +3981,24 @@
         <v>12</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H59" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="C60" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>11</v>
@@ -3622,10 +4007,10 @@
         <v>12</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3633,13 +4018,13 @@
         <v>8</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C61" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>11</v>
@@ -3648,10 +4033,10 @@
         <v>12</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3659,13 +4044,13 @@
         <v>8</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="C62" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>11</v>
@@ -3674,24 +4059,24 @@
         <v>12</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H62" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="C63" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>11</v>
@@ -3700,10 +4085,10 @@
         <v>12</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3711,13 +4096,13 @@
         <v>8</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="C64" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>11</v>
@@ -3726,10 +4111,10 @@
         <v>12</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3737,13 +4122,13 @@
         <v>8</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="C65" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>11</v>
@@ -3752,10 +4137,10 @@
         <v>12</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3763,13 +4148,13 @@
         <v>8</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="C66" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>11</v>
@@ -3778,10 +4163,10 @@
         <v>12</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3789,13 +4174,13 @@
         <v>8</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="C67" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>11</v>
@@ -3804,10 +4189,10 @@
         <v>12</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>185</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3815,13 +4200,13 @@
         <v>8</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="C68" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>11</v>
@@ -3830,10 +4215,10 @@
         <v>12</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3841,13 +4226,13 @@
         <v>8</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="C69" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>11</v>
@@ -3856,10 +4241,10 @@
         <v>12</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3867,13 +4252,13 @@
         <v>8</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C70" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>11</v>
@@ -3882,24 +4267,24 @@
         <v>12</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C71" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>11</v>
@@ -3908,24 +4293,24 @@
         <v>12</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C72" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>11</v>
@@ -3934,10 +4319,10 @@
         <v>12</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3945,13 +4330,13 @@
         <v>8</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C73" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>11</v>
@@ -3960,10 +4345,10 @@
         <v>12</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3971,13 +4356,13 @@
         <v>8</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C74" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>11</v>
@@ -3986,10 +4371,10 @@
         <v>12</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>58</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3997,13 +4382,13 @@
         <v>8</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C75" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>11</v>
@@ -4011,11 +4396,11 @@
       <c r="F75" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G75" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>206</v>
+      <c r="G75" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4023,13 +4408,13 @@
         <v>8</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="C76" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>11</v>
@@ -4037,25 +4422,25 @@
       <c r="F76" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G76" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="G76" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="C77" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>11</v>
@@ -4063,14 +4448,14 @@
       <c r="F77" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G77" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="G77" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>8</v>
       </c>
@@ -4078,10 +4463,10 @@
         <v>211</v>
       </c>
       <c r="C78" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>11</v>
@@ -4090,13 +4475,13 @@
         <v>12</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>8</v>
       </c>
@@ -4104,10 +4489,10 @@
         <v>211</v>
       </c>
       <c r="C79" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>11</v>
@@ -4116,13 +4501,13 @@
         <v>12</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>8</v>
       </c>
@@ -4130,10 +4515,10 @@
         <v>211</v>
       </c>
       <c r="C80" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>11</v>
@@ -4142,10 +4527,10 @@
         <v>12</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>404</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4156,10 +4541,10 @@
         <v>211</v>
       </c>
       <c r="C81" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>11</v>
@@ -4167,11 +4552,11 @@
       <c r="F81" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>220</v>
+      <c r="G81" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4179,13 +4564,13 @@
         <v>8</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C82" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>11</v>
@@ -4193,25 +4578,25 @@
       <c r="F82" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G82" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G82" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C83" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>11</v>
@@ -4219,11 +4604,11 @@
       <c r="F83" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>226</v>
+      <c r="G83" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4231,91 +4616,91 @@
         <v>8</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C84" s="2">
+        <v>8</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C85" s="2">
         <v>0</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C85" s="2">
+      <c r="D85" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C86" s="2">
         <v>1</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C86" s="2">
+      <c r="D86" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C87" s="2">
         <v>2</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C87" s="2">
-        <v>3</v>
-      </c>
       <c r="D87" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>11</v>
@@ -4324,10 +4709,10 @@
         <v>12</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>406</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4335,13 +4720,13 @@
         <v>8</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C88" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>11</v>
@@ -4350,10 +4735,10 @@
         <v>12</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>407</v>
+        <v>244</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4361,13 +4746,13 @@
         <v>8</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="C89" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>11</v>
@@ -4376,24 +4761,24 @@
         <v>12</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="C90" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>11</v>
@@ -4402,10 +4787,10 @@
         <v>12</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>409</v>
+        <v>250</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4413,13 +4798,13 @@
         <v>8</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="C91" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>11</v>
@@ -4428,24 +4813,24 @@
         <v>12</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="C92" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>11</v>
@@ -4454,10 +4839,10 @@
         <v>12</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>411</v>
+        <v>256</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4465,13 +4850,13 @@
         <v>8</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="C93" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>11</v>
@@ -4480,10 +4865,10 @@
         <v>12</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>412</v>
+        <v>258</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4491,13 +4876,13 @@
         <v>8</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="C94" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>11</v>
@@ -4506,10 +4891,10 @@
         <v>12</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>413</v>
+        <v>261</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4517,13 +4902,13 @@
         <v>8</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="C95" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>11</v>
@@ -4532,10 +4917,10 @@
         <v>12</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>414</v>
+        <v>264</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4543,13 +4928,13 @@
         <v>8</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="C96" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>11</v>
@@ -4558,10 +4943,10 @@
         <v>12</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>415</v>
+        <v>267</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4569,13 +4954,13 @@
         <v>8</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="C97" s="2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>11</v>
@@ -4584,10 +4969,10 @@
         <v>12</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>416</v>
+        <v>270</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4595,13 +4980,13 @@
         <v>8</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="C98" s="2">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>11</v>
@@ -4610,10 +4995,10 @@
         <v>12</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>417</v>
+        <v>273</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4621,13 +5006,13 @@
         <v>8</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="C99" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>11</v>
@@ -4636,10 +5021,10 @@
         <v>12</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>418</v>
+        <v>276</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4647,13 +5032,13 @@
         <v>8</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="C100" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>11</v>
@@ -4662,10 +5047,10 @@
         <v>12</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4673,13 +5058,13 @@
         <v>8</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="C101" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>11</v>
@@ -4688,10 +5073,10 @@
         <v>12</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4699,13 +5084,13 @@
         <v>8</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C102" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>11</v>
@@ -4714,24 +5099,24 @@
         <v>12</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C103" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>11</v>
@@ -4740,10 +5125,10 @@
         <v>12</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4751,13 +5136,13 @@
         <v>8</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="C104" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>11</v>
@@ -4766,24 +5151,24 @@
         <v>12</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="C105" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>11</v>
@@ -4792,10 +5177,10 @@
         <v>12</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4803,13 +5188,13 @@
         <v>8</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="C106" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>11</v>
@@ -4818,10 +5203,10 @@
         <v>12</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4829,13 +5214,13 @@
         <v>8</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="C107" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>11</v>
@@ -4844,10 +5229,10 @@
         <v>12</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4855,13 +5240,13 @@
         <v>8</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="C108" s="2">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>11</v>
@@ -4870,10 +5255,10 @@
         <v>12</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4881,13 +5266,13 @@
         <v>8</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="C109" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>11</v>
@@ -4896,24 +5281,24 @@
         <v>12</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="C110" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>11</v>
@@ -4922,10 +5307,10 @@
         <v>12</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4933,13 +5318,13 @@
         <v>8</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="C111" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>11</v>
@@ -4948,24 +5333,24 @@
         <v>12</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="C112" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>11</v>
@@ -4974,10 +5359,10 @@
         <v>12</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4985,13 +5370,13 @@
         <v>8</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="C113" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>11</v>
@@ -5000,10 +5385,10 @@
         <v>12</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5011,13 +5396,13 @@
         <v>8</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="C114" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>11</v>
@@ -5026,10 +5411,10 @@
         <v>12</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5037,13 +5422,13 @@
         <v>8</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="C115" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>11</v>
@@ -5052,10 +5437,10 @@
         <v>12</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5063,13 +5448,13 @@
         <v>8</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="C116" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>11</v>
@@ -5078,10 +5463,10 @@
         <v>12</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5089,13 +5474,13 @@
         <v>8</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="C117" s="2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>11</v>
@@ -5104,10 +5489,10 @@
         <v>12</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5115,13 +5500,13 @@
         <v>8</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="C118" s="2">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>11</v>
@@ -5130,10 +5515,10 @@
         <v>12</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5141,13 +5526,13 @@
         <v>8</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="C119" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>11</v>
@@ -5156,10 +5541,10 @@
         <v>12</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5167,13 +5552,13 @@
         <v>8</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="C120" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>11</v>
@@ -5182,10 +5567,10 @@
         <v>12</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5193,13 +5578,13 @@
         <v>8</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="C121" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>11</v>
@@ -5208,10 +5593,10 @@
         <v>12</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5219,13 +5604,13 @@
         <v>8</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="C122" s="2">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>11</v>
@@ -5234,10 +5619,10 @@
         <v>12</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5245,13 +5630,13 @@
         <v>8</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="C123" s="2">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>11</v>
@@ -5260,10 +5645,10 @@
         <v>12</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5271,13 +5656,13 @@
         <v>8</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="C124" s="2">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>11</v>
@@ -5286,10 +5671,10 @@
         <v>12</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5297,13 +5682,13 @@
         <v>8</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="C125" s="2">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>11</v>
@@ -5312,10 +5697,10 @@
         <v>12</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5323,13 +5708,13 @@
         <v>8</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="C126" s="2">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>11</v>
@@ -5338,10 +5723,10 @@
         <v>12</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5349,13 +5734,13 @@
         <v>8</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="C127" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>11</v>
@@ -5364,24 +5749,24 @@
         <v>12</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="C128" s="2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>11</v>
@@ -5390,10 +5775,10 @@
         <v>12</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5401,13 +5786,13 @@
         <v>8</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="C129" s="2">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>11</v>
@@ -5416,10 +5801,10 @@
         <v>12</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5427,13 +5812,13 @@
         <v>8</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="C130" s="2">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>11</v>
@@ -5442,10 +5827,10 @@
         <v>12</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5453,13 +5838,13 @@
         <v>8</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="C131" s="2">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>11</v>
@@ -5468,10 +5853,10 @@
         <v>12</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5479,13 +5864,13 @@
         <v>8</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="C132" s="2">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>11</v>
@@ -5494,10 +5879,10 @@
         <v>12</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5505,13 +5890,13 @@
         <v>8</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="C133" s="2">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>11</v>
@@ -5520,10 +5905,10 @@
         <v>12</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5531,13 +5916,13 @@
         <v>8</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="C134" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>11</v>
@@ -5546,24 +5931,24 @@
         <v>12</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="C135" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>11</v>
@@ -5572,10 +5957,10 @@
         <v>12</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5583,13 +5968,13 @@
         <v>8</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="C136" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>11</v>
@@ -5598,10 +5983,10 @@
         <v>12</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5609,13 +5994,13 @@
         <v>8</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="C137" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>11</v>
@@ -5624,10 +6009,10 @@
         <v>12</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5635,13 +6020,13 @@
         <v>8</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="C138" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>11</v>
@@ -5650,10 +6035,10 @@
         <v>12</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5661,13 +6046,13 @@
         <v>8</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C139" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>11</v>
@@ -5676,24 +6061,24 @@
         <v>12</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C140" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>11</v>
@@ -5702,24 +6087,24 @@
         <v>12</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="H140" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>368</v>
-      </c>
       <c r="C141" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>11</v>
@@ -5728,10 +6113,10 @@
         <v>12</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5739,13 +6124,13 @@
         <v>8</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C142" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>11</v>
@@ -5753,11 +6138,11 @@
       <c r="F142" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G142" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="H142" s="6" t="s">
-        <v>378</v>
+      <c r="G142" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5765,13 +6150,13 @@
         <v>8</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C143" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>11</v>
@@ -5780,10 +6165,10 @@
         <v>12</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5791,13 +6176,13 @@
         <v>8</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C144" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>11</v>
@@ -5806,102 +6191,102 @@
         <v>12</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>385</v>
+        <v>8</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C145" s="2">
+        <v>11</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C146" s="2">
         <v>0</v>
       </c>
-      <c r="D145" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="H145" s="4" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C146" s="2">
+      <c r="D146" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C147" s="2">
         <v>1</v>
       </c>
-      <c r="D146" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G146" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="H146" s="4" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C147" s="2">
+      <c r="D147" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C148" s="2">
         <v>2</v>
       </c>
-      <c r="D147" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G147" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="H147" s="4" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A148" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C148" s="2">
-        <v>0</v>
-      </c>
       <c r="D148" s="2" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>11</v>
@@ -5910,36 +6295,296 @@
         <v>12</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>25</v>
+        <v>414</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>385</v>
+        <v>8</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="C149" s="2">
+        <v>3</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="H149" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C150" s="2">
+        <v>4</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C151" s="2">
+        <v>5</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C152" s="2">
+        <v>0</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C153" s="2">
         <v>1</v>
       </c>
-      <c r="D149" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="H149" s="4" t="s">
-        <v>25</v>
+      <c r="D153" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C154" s="2">
+        <v>2</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C155" s="2">
+        <v>0</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C156" s="2">
+        <v>1</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="H156" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C157" s="2">
+        <v>1026</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C158" s="2">
+        <v>2002</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="H158" s="4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C159" s="2">
+        <v>2002</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>446</v>
       </c>
     </row>
   </sheetData>

--- a/docassemble/ukraine/data/sources/interview_en.xlsx
+++ b/docassemble/ukraine/data/sources/interview_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixvemmer/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80124B29-0624-3340-B15C-A20B90E459E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3250C6-6767-C945-83FD-6C6F9B47178B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="448">
   <si>
     <t>interview</t>
   </si>
@@ -406,7 +406,7 @@
     <t>Größe in cm</t>
   </si>
   <si>
-    <t/>
+    <t>Height in cm</t>
   </si>
   <si>
     <t>4481872be58c4d95aec1336303b73159</t>
@@ -862,39 +862,6 @@
       </rPr>
       <t xml:space="preserve">. Familienmitglied
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Please complete the information about your </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${ i + 1 }</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Family member</t>
     </r>
   </si>
   <si>
@@ -2009,9 +1976,6 @@
     <t>Größe</t>
   </si>
   <si>
-    <t>Height in cm</t>
-  </si>
-  <si>
     <t>eaf88f9c5a548686fa745ff9dc445775</t>
   </si>
   <si>
@@ -2030,6 +1994,38 @@
   <si>
     <t xml:space="preserve">Please watch the video below and follow the instructions to find the **right address** to send your application
 </t>
+  </si>
+  <si>
+    <t>registered with mother</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Please complete the information about your </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${ i + 1 }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. family member</t>
+    </r>
+  </si>
+  <si>
+    <t>restricted to</t>
   </si>
 </sst>
 </file>
@@ -2441,8 +2437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="H133" sqref="H133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3542,7 +3538,7 @@
         <v>115</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>440</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4192,7 +4188,7 @@
         <v>187</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>116</v>
+        <v>445</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4842,7 +4838,7 @@
         <v>255</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>256</v>
+        <v>446</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4856,19 +4852,19 @@
         <v>2</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>258</v>
-      </c>
       <c r="H93" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4882,19 +4878,19 @@
         <v>3</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" s="3" t="s">
+      <c r="H94" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4908,19 +4904,19 @@
         <v>4</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" s="3" t="s">
+      <c r="H95" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4934,19 +4930,19 @@
         <v>5</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" s="3" t="s">
+      <c r="H96" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4960,19 +4956,19 @@
         <v>6</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" s="3" t="s">
+      <c r="H97" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4986,19 +4982,19 @@
         <v>7</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" s="3" t="s">
+      <c r="H98" s="4" t="s">
         <v>272</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5012,19 +5008,19 @@
         <v>8</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" s="3" t="s">
+      <c r="H99" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5038,19 +5034,19 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" s="3" t="s">
+      <c r="H100" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5064,19 +5060,19 @@
         <v>10</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" s="3" t="s">
+      <c r="H101" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5090,19 +5086,19 @@
         <v>11</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" s="3" t="s">
+      <c r="H102" s="4" t="s">
         <v>284</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5116,19 +5112,19 @@
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" s="3" t="s">
+      <c r="H103" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5142,19 +5138,19 @@
         <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" s="3" t="s">
+      <c r="H104" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5168,19 +5164,19 @@
         <v>14</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" s="3" t="s">
+      <c r="H105" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5194,19 +5190,19 @@
         <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" s="3" t="s">
+      <c r="H106" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="H106" s="4" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5220,19 +5216,19 @@
         <v>16</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" s="3" t="s">
+      <c r="H107" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="H107" s="4" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5246,7 +5242,7 @@
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>11</v>
@@ -5255,10 +5251,10 @@
         <v>12</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5266,25 +5262,25 @@
         <v>8</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>304</v>
-      </c>
       <c r="H109" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5292,25 +5288,25 @@
         <v>8</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C110" s="2">
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" s="3" t="s">
+      <c r="H110" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="H110" s="4" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5318,25 +5314,25 @@
         <v>8</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>310</v>
-      </c>
       <c r="H111" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5344,25 +5340,25 @@
         <v>8</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C112" s="2">
         <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" s="3" t="s">
+      <c r="H112" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="H112" s="4" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5370,25 +5366,25 @@
         <v>8</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C113" s="2">
         <v>2</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" s="3" t="s">
+      <c r="H113" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="H113" s="4" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5396,25 +5392,25 @@
         <v>8</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C114" s="2">
         <v>3</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" s="3" t="s">
+      <c r="H114" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="H114" s="4" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5422,25 +5418,25 @@
         <v>8</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C115" s="2">
         <v>4</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" s="3" t="s">
+      <c r="H115" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="H115" s="4" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5448,25 +5444,25 @@
         <v>8</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C116" s="2">
         <v>5</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" s="3" t="s">
+      <c r="H116" s="4" t="s">
         <v>324</v>
-      </c>
-      <c r="H116" s="4" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5474,25 +5470,25 @@
         <v>8</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C117" s="2">
         <v>6</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" s="3" t="s">
+      <c r="H117" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5500,25 +5496,25 @@
         <v>8</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C118" s="2">
         <v>7</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" s="3" t="s">
+      <c r="H118" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="H118" s="4" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5526,25 +5522,25 @@
         <v>8</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C119" s="2">
         <v>8</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="E119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>333</v>
-      </c>
       <c r="H119" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5552,25 +5548,25 @@
         <v>8</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C120" s="2">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G120" s="3" t="s">
+      <c r="H120" s="4" t="s">
         <v>335</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5578,25 +5574,25 @@
         <v>8</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C121" s="2">
         <v>10</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G121" s="3" t="s">
+      <c r="H121" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="H121" s="4" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5604,25 +5600,25 @@
         <v>8</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C122" s="2">
         <v>11</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122" s="3" t="s">
+      <c r="H122" s="4" t="s">
         <v>341</v>
-      </c>
-      <c r="H122" s="4" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5630,25 +5626,25 @@
         <v>8</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C123" s="2">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" s="3" t="s">
+      <c r="H123" s="4" t="s">
         <v>344</v>
-      </c>
-      <c r="H123" s="4" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5656,25 +5652,25 @@
         <v>8</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C124" s="2">
         <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>347</v>
-      </c>
       <c r="H124" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5682,25 +5678,25 @@
         <v>8</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C125" s="2">
         <v>14</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G125" s="3" t="s">
+      <c r="H125" s="4" t="s">
         <v>349</v>
-      </c>
-      <c r="H125" s="4" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5708,25 +5704,25 @@
         <v>8</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C126" s="2">
         <v>15</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>352</v>
-      </c>
       <c r="H126" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5734,25 +5730,25 @@
         <v>8</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C127" s="2">
         <v>16</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G127" s="3" t="s">
+      <c r="H127" s="4" t="s">
         <v>354</v>
-      </c>
-      <c r="H127" s="4" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5760,25 +5756,25 @@
         <v>8</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C128" s="2">
         <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G128" s="3" t="s">
+      <c r="H128" s="4" t="s">
         <v>357</v>
-      </c>
-      <c r="H128" s="4" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5786,25 +5782,25 @@
         <v>8</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C129" s="2">
         <v>18</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G129" s="3" t="s">
+      <c r="H129" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="H129" s="4" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5812,25 +5808,25 @@
         <v>8</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C130" s="2">
         <v>19</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G130" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G130" s="3" t="s">
+      <c r="H130" s="4" t="s">
         <v>363</v>
-      </c>
-      <c r="H130" s="4" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5838,25 +5834,25 @@
         <v>8</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C131" s="2">
         <v>20</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G131" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="E131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G131" s="3" t="s">
+      <c r="H131" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="H131" s="4" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5864,25 +5860,25 @@
         <v>8</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C132" s="2">
         <v>21</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G132" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>369</v>
-      </c>
       <c r="H132" s="4" t="s">
-        <v>369</v>
+        <v>447</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5890,25 +5886,25 @@
         <v>8</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C133" s="2">
         <v>22</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G133" s="3" t="s">
+      <c r="H133" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="H133" s="4" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5916,25 +5912,25 @@
         <v>8</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="E134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>375</v>
-      </c>
       <c r="H134" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5942,25 +5938,25 @@
         <v>8</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C135" s="2">
         <v>1</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G135" s="3" t="s">
+      <c r="H135" s="4" t="s">
         <v>377</v>
-      </c>
-      <c r="H135" s="4" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5968,25 +5964,25 @@
         <v>8</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C136" s="2">
         <v>2</v>
       </c>
       <c r="D136" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G136" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="E136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G136" s="3" t="s">
+      <c r="H136" s="4" t="s">
         <v>380</v>
-      </c>
-      <c r="H136" s="4" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5994,25 +5990,25 @@
         <v>8</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C137" s="2">
         <v>3</v>
       </c>
       <c r="D137" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G137" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="E137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G137" s="3" t="s">
+      <c r="H137" s="4" t="s">
         <v>383</v>
-      </c>
-      <c r="H137" s="4" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6020,25 +6016,25 @@
         <v>8</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C138" s="2">
         <v>4</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G138" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="E138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G138" s="3" t="s">
-        <v>386</v>
-      </c>
       <c r="H138" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6046,25 +6042,25 @@
         <v>8</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C139" s="2">
         <v>5</v>
       </c>
       <c r="D139" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G139" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="E139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G139" s="3" t="s">
+      <c r="H139" s="4" t="s">
         <v>388</v>
-      </c>
-      <c r="H139" s="4" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6072,25 +6068,25 @@
         <v>8</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C140" s="2">
         <v>6</v>
       </c>
       <c r="D140" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G140" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="E140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G140" s="3" t="s">
+      <c r="H140" s="4" t="s">
         <v>391</v>
-      </c>
-      <c r="H140" s="4" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6098,25 +6094,25 @@
         <v>8</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C141" s="2">
         <v>7</v>
       </c>
       <c r="D141" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G141" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>394</v>
-      </c>
       <c r="H141" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6124,25 +6120,25 @@
         <v>8</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C142" s="2">
         <v>8</v>
       </c>
       <c r="D142" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G142" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="E142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G142" s="3" t="s">
+      <c r="H142" s="4" t="s">
         <v>396</v>
-      </c>
-      <c r="H142" s="4" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6150,25 +6146,25 @@
         <v>8</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C143" s="2">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G143" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>399</v>
-      </c>
       <c r="H143" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6176,25 +6172,25 @@
         <v>8</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C144" s="2">
         <v>10</v>
       </c>
       <c r="D144" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G144" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="E144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G144" s="3" t="s">
+      <c r="H144" s="4" t="s">
         <v>401</v>
-      </c>
-      <c r="H144" s="4" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6202,25 +6198,25 @@
         <v>8</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C145" s="2">
         <v>11</v>
       </c>
       <c r="D145" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G145" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="E145" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G145" s="3" t="s">
+      <c r="H145" s="4" t="s">
         <v>404</v>
-      </c>
-      <c r="H145" s="4" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6228,25 +6224,25 @@
         <v>8</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
       </c>
       <c r="D146" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G146" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="E146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G146" s="3" t="s">
-        <v>408</v>
-      </c>
       <c r="H146" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6254,25 +6250,25 @@
         <v>8</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C147" s="2">
         <v>1</v>
       </c>
       <c r="D147" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G147" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="E147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G147" s="3" t="s">
+      <c r="H147" s="4" t="s">
         <v>410</v>
-      </c>
-      <c r="H147" s="4" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.2">
@@ -6280,25 +6276,25 @@
         <v>8</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C148" s="2">
         <v>2</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G148" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="E148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G148" s="3" t="s">
+      <c r="H148" s="4" t="s">
         <v>413</v>
-      </c>
-      <c r="H148" s="4" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6306,25 +6302,25 @@
         <v>8</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C149" s="2">
         <v>3</v>
       </c>
       <c r="D149" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G149" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="E149" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G149" s="5" t="s">
-        <v>416</v>
-      </c>
       <c r="H149" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6332,25 +6328,25 @@
         <v>8</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C150" s="2">
         <v>4</v>
       </c>
       <c r="D150" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G150" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="E150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G150" s="3" t="s">
+      <c r="H150" s="4" t="s">
         <v>418</v>
-      </c>
-      <c r="H150" s="4" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6358,126 +6354,126 @@
         <v>8</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C151" s="2">
         <v>5</v>
       </c>
       <c r="D151" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G151" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="E151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G151" s="3" t="s">
+      <c r="H151" s="4" t="s">
         <v>421</v>
-      </c>
-      <c r="H151" s="4" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
       </c>
       <c r="D152" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G152" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E152" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G152" s="3" t="s">
-        <v>426</v>
-      </c>
       <c r="H152" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="C153" s="2">
         <v>1</v>
       </c>
       <c r="D153" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G153" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="E153" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G153" s="3" t="s">
+      <c r="H153" s="4" t="s">
         <v>428</v>
-      </c>
-      <c r="H153" s="4" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="C154" s="2">
         <v>2</v>
       </c>
       <c r="D154" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G154" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="E154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G154" s="3" t="s">
+      <c r="H154" s="4" t="s">
         <v>431</v>
-      </c>
-      <c r="H154" s="4" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
       </c>
       <c r="D155" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G155" s="3" t="s">
         <v>434</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G155" s="3" t="s">
-        <v>435</v>
       </c>
       <c r="H155" s="4" t="s">
         <v>27</v>
@@ -6485,25 +6481,25 @@
     </row>
     <row r="156" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C156" s="2">
         <v>1</v>
       </c>
       <c r="D156" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G156" s="3" t="s">
         <v>436</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G156" s="3" t="s">
-        <v>437</v>
       </c>
       <c r="H156" s="4" t="s">
         <v>27</v>
@@ -6517,22 +6513,22 @@
         <v>44</v>
       </c>
       <c r="C157" s="2">
-        <v>1026</v>
+        <v>2026</v>
       </c>
       <c r="D157" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G157" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="E157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G157" s="3" t="s">
-        <v>439</v>
-      </c>
       <c r="H157" s="4" t="s">
-        <v>440</v>
+        <v>116</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -6543,22 +6539,22 @@
         <v>171</v>
       </c>
       <c r="C158" s="2">
-        <v>2002</v>
+        <v>3002</v>
       </c>
       <c r="D158" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="H158" s="4" t="s">
         <v>441</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G158" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="H158" s="4" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6566,25 +6562,25 @@
         <v>8</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C159" s="2">
-        <v>2002</v>
+        <v>3002</v>
       </c>
       <c r="D159" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="H159" s="4" t="s">
         <v>444</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G159" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="H159" s="4" t="s">
-        <v>446</v>
       </c>
     </row>
   </sheetData>

--- a/docassemble/ukraine/data/sources/interview_en.xlsx
+++ b/docassemble/ukraine/data/sources/interview_en.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixvemmer/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixvemmer/Desktop/tripliq-repo/docassemble-ukraine/docassemble/ukraine/data/sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3250C6-6767-C945-83FD-6C6F9B47178B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82915013-054F-1841-95BB-E41FE0894F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="449">
   <si>
     <t>interview</t>
   </si>
@@ -2026,6 +2026,9 @@
   </si>
   <si>
     <t>restricted to</t>
+  </si>
+  <si>
+    <t>Escape from war</t>
   </si>
 </sst>
 </file>
@@ -2437,8 +2440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="H133" sqref="H133"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="H144" sqref="H144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6164,7 +6167,7 @@
         <v>398</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>398</v>
+        <v>448</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="16" x14ac:dyDescent="0.2">
